--- a/data/wb_gdp3.xlsx
+++ b/data/wb_gdp3.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,11 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E735"/>
+  <dimension ref="A1:F735"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -375,10 +382,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>GDP</t>
         </is>
@@ -403,7 +415,10 @@
       <c r="D2">
         <v>2019</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F2">
         <v>3368970253.05286</v>
       </c>
     </row>
@@ -426,7 +441,10 @@
       <c r="D3">
         <v>2020</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F3">
         <v>2610038937.56355</v>
       </c>
     </row>
@@ -449,7 +467,10 @@
       <c r="D4">
         <v>2021</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F4">
         <v>3126019399.06492</v>
       </c>
     </row>
@@ -472,7 +493,10 @@
       <c r="D5">
         <v>2019</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F5">
         <v>18904490262.913</v>
       </c>
     </row>
@@ -495,7 +519,10 @@
       <c r="D6">
         <v>2020</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F6">
         <v>20143442150.971</v>
       </c>
     </row>
@@ -518,7 +545,10 @@
       <c r="D7">
         <v>2021</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F7">
         <v>14786861638.4535</v>
       </c>
     </row>
@@ -541,7 +571,10 @@
       <c r="D8">
         <v>2019</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F8">
         <v>69309110145.76871</v>
       </c>
     </row>
@@ -564,7 +597,10 @@
       <c r="D9">
         <v>2020</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F9">
         <v>53619073505.1377</v>
       </c>
     </row>
@@ -587,7 +623,10 @@
       <c r="D10">
         <v>2021</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F10">
         <v>67404287260.3199</v>
       </c>
     </row>
@@ -610,7 +649,10 @@
       <c r="D11">
         <v>2019</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F11">
         <v>15401830754.0773</v>
       </c>
     </row>
@@ -633,7 +675,10 @@
       <c r="D12">
         <v>2020</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F12">
         <v>15131866270.5936</v>
       </c>
     </row>
@@ -656,7 +701,10 @@
       <c r="D13">
         <v>2021</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F13">
         <v>18255787479.1846</v>
       </c>
     </row>
@@ -679,7 +727,10 @@
       <c r="D14">
         <v>2019</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F14">
         <v>3155065487.51819</v>
       </c>
     </row>
@@ -702,7 +753,10 @@
       <c r="D15">
         <v>2020</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F15">
         <v>2891022272.98687</v>
       </c>
     </row>
@@ -725,7 +779,10 @@
       <c r="D16">
         <v>2021</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F16">
         <v>3330281523.53915</v>
       </c>
     </row>
@@ -748,7 +805,10 @@
       <c r="D17">
         <v>2019</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F17">
         <v>2818359324481.87</v>
       </c>
     </row>
@@ -771,7 +831,10 @@
       <c r="D18">
         <v>2020</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F18">
         <v>2491175410790</v>
       </c>
     </row>
@@ -794,7 +857,10 @@
       <c r="D19">
         <v>2021</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F19">
         <v>2862987423061.49</v>
       </c>
     </row>
@@ -817,7 +883,10 @@
       <c r="D20">
         <v>2019</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F20">
         <v>417989721734.494</v>
       </c>
     </row>
@@ -840,7 +909,10 @@
       <c r="D21">
         <v>2020</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F21">
         <v>349473015336.939</v>
       </c>
     </row>
@@ -863,7 +935,10 @@
       <c r="D22">
         <v>2021</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F22">
         <v>415021590683.006</v>
       </c>
     </row>
@@ -886,7 +961,10 @@
       <c r="D23">
         <v>2019</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F23">
         <v>447754609218.678</v>
       </c>
     </row>
@@ -909,7 +987,10 @@
       <c r="D24">
         <v>2020</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F24">
         <v>385540224628.292</v>
       </c>
     </row>
@@ -932,7 +1013,10 @@
       <c r="D25">
         <v>2021</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F25">
         <v>487227339102.67</v>
       </c>
     </row>
@@ -955,7 +1039,10 @@
       <c r="D26">
         <v>2019</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F26">
         <v>13619291361.2814</v>
       </c>
     </row>
@@ -978,7 +1065,10 @@
       <c r="D27">
         <v>2020</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F27">
         <v>12641697523.2966</v>
       </c>
     </row>
@@ -1001,7 +1091,10 @@
       <c r="D28">
         <v>2021</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F28">
         <v>13861409968.835</v>
       </c>
     </row>
@@ -1024,7 +1117,10 @@
       <c r="D29">
         <v>2019</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F29">
         <v>647000000</v>
       </c>
     </row>
@@ -1047,7 +1143,10 @@
       <c r="D30">
         <v>2020</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F30">
         <v>716000000</v>
       </c>
     </row>
@@ -1070,7 +1169,10 @@
       <c r="D31">
         <v>2021</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F31">
         <v>709000000</v>
       </c>
     </row>
@@ -1093,7 +1195,10 @@
       <c r="D32">
         <v>2019</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F32">
         <v>1687533333.33333</v>
       </c>
     </row>
@@ -1116,7 +1221,10 @@
       <c r="D33">
         <v>2020</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F33">
         <v>1370281481.48148</v>
       </c>
     </row>
@@ -1139,7 +1247,10 @@
       <c r="D34">
         <v>2021</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F34">
         <v>1471125925.92593</v>
       </c>
     </row>
@@ -1162,7 +1273,10 @@
       <c r="D35">
         <v>2019</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F35">
         <v>1392227864397.08</v>
       </c>
     </row>
@@ -1185,7 +1299,10 @@
       <c r="D36">
         <v>2020</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F36">
         <v>1326901059123.21</v>
       </c>
     </row>
@@ -1208,7 +1325,10 @@
       <c r="D37">
         <v>2021</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F37">
         <v>1552667363236.06</v>
       </c>
     </row>
@@ -1231,7 +1351,10 @@
       <c r="D38">
         <v>2019</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F38">
         <v>444621176100.548</v>
       </c>
     </row>
@@ -1254,7 +1377,10 @@
       <c r="D39">
         <v>2020</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F39">
         <v>435225238000.437</v>
       </c>
     </row>
@@ -1277,7 +1403,10 @@
       <c r="D40">
         <v>2021</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F40">
         <v>480368403893.364</v>
       </c>
     </row>
@@ -1300,7 +1429,10 @@
       <c r="D41">
         <v>2019</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F41">
         <v>48174235294.1176</v>
       </c>
     </row>
@@ -1323,7 +1455,10 @@
       <c r="D42">
         <v>2020</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F42">
         <v>42693000000</v>
       </c>
     </row>
@@ -1346,7 +1481,10 @@
       <c r="D43">
         <v>2021</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F43">
         <v>54622176470.5882</v>
       </c>
     </row>
@@ -1369,7 +1507,10 @@
       <c r="D44">
         <v>2019</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F44">
         <v>2576518846.39</v>
       </c>
     </row>
@@ -1392,7 +1533,10 @@
       <c r="D45">
         <v>2020</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F45">
         <v>2649671998.86192</v>
       </c>
     </row>
@@ -1415,7 +1559,10 @@
       <c r="D46">
         <v>2021</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F46">
         <v>2779813489.02447</v>
       </c>
     </row>
@@ -1438,7 +1585,10 @@
       <c r="D47">
         <v>2019</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F47">
         <v>535830876745.097</v>
       </c>
     </row>
@@ -1461,7 +1611,10 @@
       <c r="D48">
         <v>2020</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F48">
         <v>525211810652.608</v>
       </c>
     </row>
@@ -1484,7 +1637,10 @@
       <c r="D49">
         <v>2021</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F49">
         <v>594104177539.525</v>
       </c>
     </row>
@@ -1507,7 +1663,10 @@
       <c r="D50">
         <v>2019</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F50">
         <v>14391686309.033</v>
       </c>
     </row>
@@ -1530,7 +1689,10 @@
       <c r="D51">
         <v>2020</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F51">
         <v>15651545208.8783</v>
       </c>
     </row>
@@ -1553,7 +1715,10 @@
       <c r="D52">
         <v>2021</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F52">
         <v>17144918952.4682</v>
       </c>
     </row>
@@ -1576,7 +1741,10 @@
       <c r="D53">
         <v>2019</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F53">
         <v>16178162030.0694</v>
       </c>
     </row>
@@ -1599,7 +1767,10 @@
       <c r="D54">
         <v>2020</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F54">
         <v>17933606353.1775</v>
       </c>
     </row>
@@ -1622,7 +1793,10 @@
       <c r="D55">
         <v>2021</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F55">
         <v>19737615114.3661</v>
       </c>
     </row>
@@ -1645,7 +1819,10 @@
       <c r="D56">
         <v>2019</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F56">
         <v>351238474244.667</v>
       </c>
     </row>
@@ -1668,7 +1845,10 @@
       <c r="D57">
         <v>2020</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F57">
         <v>373902134700.41</v>
       </c>
     </row>
@@ -1691,7 +1871,10 @@
       <c r="D58">
         <v>2021</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F58">
         <v>416264942893.326</v>
       </c>
     </row>
@@ -1714,7 +1897,10 @@
       <c r="D59">
         <v>2019</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F59">
         <v>68915875214.6537</v>
       </c>
     </row>
@@ -1737,7 +1923,10 @@
       <c r="D60">
         <v>2020</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F60">
         <v>70240275010.1964</v>
       </c>
     </row>
@@ -1760,7 +1949,10 @@
       <c r="D61">
         <v>2021</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F61">
         <v>84056312734.3089</v>
       </c>
     </row>
@@ -1783,7 +1975,10 @@
       <c r="D62">
         <v>2019</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F62">
         <v>38653318085.1064</v>
       </c>
     </row>
@@ -1806,7 +2001,10 @@
       <c r="D63">
         <v>2020</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F63">
         <v>34723357446.8085</v>
       </c>
     </row>
@@ -1829,7 +2027,10 @@
       <c r="D64">
         <v>2021</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F64">
         <v>38868663031.9149</v>
       </c>
     </row>
@@ -1852,7 +2053,10 @@
       <c r="D65">
         <v>2019</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F65">
         <v>13192800000</v>
       </c>
     </row>
@@ -1875,7 +2079,10 @@
       <c r="D66">
         <v>2020</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F66">
         <v>9699500000</v>
       </c>
     </row>
@@ -1898,7 +2105,10 @@
       <c r="D67">
         <v>2021</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F67">
         <v>11208600000</v>
       </c>
     </row>
@@ -1921,7 +2131,10 @@
       <c r="D68">
         <v>2019</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F68">
         <v>20202479537.5193</v>
       </c>
     </row>
@@ -1944,7 +2157,10 @@
       <c r="D69">
         <v>2020</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F69">
         <v>19950471170.6465</v>
       </c>
     </row>
@@ -1967,7 +2183,10 @@
       <c r="D70">
         <v>2021</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F70">
         <v>23365361635.2201</v>
       </c>
     </row>
@@ -1990,7 +2209,10 @@
       <c r="D71">
         <v>2019</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F71">
         <v>64409647193.8044</v>
       </c>
     </row>
@@ -2013,7 +2235,10 @@
       <c r="D72">
         <v>2020</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F72">
         <v>61371126414.1663</v>
       </c>
     </row>
@@ -2036,7 +2261,10 @@
       <c r="D73">
         <v>2021</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F73">
         <v>68205380706.6609</v>
       </c>
     </row>
@@ -2059,7 +2287,10 @@
       <c r="D74">
         <v>2019</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F74">
         <v>2416500000</v>
       </c>
     </row>
@@ -2082,7 +2313,10 @@
       <c r="D75">
         <v>2020</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F75">
         <v>2080000000</v>
       </c>
     </row>
@@ -2105,7 +2339,10 @@
       <c r="D76">
         <v>2021</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F76">
         <v>2491500000</v>
       </c>
     </row>
@@ -2128,7 +2365,10 @@
       <c r="D77">
         <v>2019</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F77">
         <v>7423465000</v>
       </c>
     </row>
@@ -2151,7 +2391,10 @@
       <c r="D78">
         <v>2020</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F78">
         <v>6887147000</v>
       </c>
     </row>
@@ -2174,7 +2417,10 @@
       <c r="D79">
         <v>2021</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F79">
         <v>7286607000</v>
       </c>
     </row>
@@ -2197,7 +2443,10 @@
       <c r="D80">
         <v>2019</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F80">
         <v>40895322843.7851</v>
       </c>
     </row>
@@ -2220,7 +2469,10 @@
       <c r="D81">
         <v>2020</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F81">
         <v>36629843805.0216</v>
       </c>
     </row>
@@ -2243,7 +2495,10 @@
       <c r="D82">
         <v>2021</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F82">
         <v>40408208528.1599</v>
       </c>
     </row>
@@ -2266,7 +2521,10 @@
       <c r="D83">
         <v>2019</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F83">
         <v>1873274432754.47</v>
       </c>
     </row>
@@ -2289,7 +2547,10 @@
       <c r="D84">
         <v>2020</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F84">
         <v>1448559976218.19</v>
       </c>
     </row>
@@ -2312,7 +2573,10 @@
       <c r="D85">
         <v>2021</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F85">
         <v>1608981456325.08</v>
       </c>
     </row>
@@ -2335,7 +2599,10 @@
       <c r="D86">
         <v>2019</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F86">
         <v>5324250000</v>
       </c>
     </row>
@@ -2358,7 +2625,10 @@
       <c r="D87">
         <v>2020</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F87">
         <v>4671800000</v>
       </c>
     </row>
@@ -2381,7 +2651,10 @@
       <c r="D88">
         <v>2021</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F88">
         <v>4843800000</v>
       </c>
     </row>
@@ -2404,7 +2677,10 @@
       <c r="D89">
         <v>2019</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F89">
         <v>13469422958.5105</v>
       </c>
     </row>
@@ -2427,7 +2703,10 @@
       <c r="D90">
         <v>2020</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F90">
         <v>12005825759.223</v>
       </c>
     </row>
@@ -2450,7 +2729,10 @@
       <c r="D91">
         <v>2021</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F91">
         <v>14006569575.68</v>
       </c>
     </row>
@@ -2473,7 +2755,10 @@
       <c r="D92">
         <v>2019</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F92">
         <v>2535657069.05537</v>
       </c>
     </row>
@@ -2496,7 +2781,10 @@
       <c r="D93">
         <v>2020</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F93">
         <v>2325184481.4277</v>
       </c>
     </row>
@@ -2519,7 +2807,10 @@
       <c r="D94">
         <v>2021</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F94">
         <v>2539552984.67797</v>
       </c>
     </row>
@@ -2542,7 +2833,10 @@
       <c r="D95">
         <v>2019</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F95">
         <v>16695928792.5697</v>
       </c>
     </row>
@@ -2565,7 +2859,10 @@
       <c r="D96">
         <v>2020</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F96">
         <v>14930072458.5814</v>
       </c>
     </row>
@@ -2588,7 +2885,10 @@
       <c r="D97">
         <v>2021</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F97">
         <v>17614791265.6824</v>
       </c>
     </row>
@@ -2611,7 +2911,10 @@
       <c r="D98">
         <v>2019</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F98">
         <v>2221301400.72468</v>
       </c>
     </row>
@@ -2634,7 +2937,10 @@
       <c r="D99">
         <v>2020</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F99">
         <v>2326720920.59223</v>
       </c>
     </row>
@@ -2657,7 +2963,10 @@
       <c r="D100">
         <v>2021</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F100">
         <v>2516498299.01212</v>
       </c>
     </row>
@@ -2680,7 +2989,10 @@
       <c r="D101">
         <v>2019</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F101">
         <v>1742015045482.31</v>
       </c>
     </row>
@@ -2703,7 +3015,10 @@
       <c r="D102">
         <v>2020</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F102">
         <v>1645423407568.36</v>
       </c>
     </row>
@@ -2726,7 +3041,10 @@
       <c r="D103">
         <v>2021</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F103">
         <v>1988336331717.42</v>
       </c>
     </row>
@@ -2749,7 +3067,10 @@
       <c r="D104">
         <v>2019</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F104">
         <v>1675083820501.22</v>
       </c>
     </row>
@@ -2772,7 +3093,10 @@
       <c r="D105">
         <v>2020</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F105">
         <v>1664902507747.84</v>
       </c>
     </row>
@@ -2795,7 +3119,10 @@
       <c r="D106">
         <v>2021</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F106">
         <v>1901935313869.67</v>
       </c>
     </row>
@@ -2818,7 +3145,10 @@
       <c r="D107">
         <v>2019</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F107">
         <v>721369112726.724</v>
       </c>
     </row>
@@ -2841,7 +3171,10 @@
       <c r="D108">
         <v>2020</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F108">
         <v>739913619797.4449</v>
       </c>
     </row>
@@ -2864,7 +3197,10 @@
       <c r="D109">
         <v>2021</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F109">
         <v>800640155387.26</v>
       </c>
     </row>
@@ -2887,7 +3223,10 @@
       <c r="D110">
         <v>2019</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F110">
         <v>278584733103.01</v>
       </c>
     </row>
@@ -2910,7 +3249,10 @@
       <c r="D111">
         <v>2020</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F111">
         <v>252727193710.018</v>
       </c>
     </row>
@@ -2933,7 +3275,10 @@
       <c r="D112">
         <v>2021</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F112">
         <v>317058508651.76</v>
       </c>
     </row>
@@ -2956,7 +3301,10 @@
       <c r="D113">
         <v>2019</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F113">
         <v>14279937500606.5</v>
       </c>
     </row>
@@ -2979,7 +3327,10 @@
       <c r="D114">
         <v>2020</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F114">
         <v>14687673892882</v>
       </c>
     </row>
@@ -3002,7 +3353,10 @@
       <c r="D115">
         <v>2021</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F115">
         <v>17734062645371.4</v>
       </c>
     </row>
@@ -3025,7 +3379,10 @@
       <c r="D116">
         <v>2019</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F116">
         <v>58539424929.7248</v>
       </c>
     </row>
@@ -3048,7 +3405,10 @@
       <c r="D117">
         <v>2020</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F117">
         <v>61348579465.1017</v>
       </c>
     </row>
@@ -3071,7 +3431,10 @@
       <c r="D118">
         <v>2021</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F118">
         <v>70043191477.04539</v>
       </c>
     </row>
@@ -3094,7 +3457,10 @@
       <c r="D119">
         <v>2019</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F119">
         <v>39670977332.7348</v>
       </c>
     </row>
@@ -3117,7 +3483,10 @@
       <c r="D120">
         <v>2020</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F120">
         <v>40773241531.2395</v>
       </c>
     </row>
@@ -3140,7 +3509,10 @@
       <c r="D121">
         <v>2021</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F121">
         <v>45338283344.8175</v>
       </c>
     </row>
@@ -3163,7 +3535,10 @@
       <c r="D122">
         <v>2019</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F122">
         <v>51775830725.8441</v>
       </c>
     </row>
@@ -3186,7 +3561,10 @@
       <c r="D123">
         <v>2020</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F123">
         <v>48716960860.0664</v>
       </c>
     </row>
@@ -3209,7 +3587,10 @@
       <c r="D124">
         <v>2021</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F124">
         <v>55350968593.0597</v>
       </c>
     </row>
@@ -3232,7 +3613,10 @@
       <c r="D125">
         <v>2019</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F125">
         <v>12750339022.9915</v>
       </c>
     </row>
@@ -3255,7 +3639,10 @@
       <c r="D126">
         <v>2020</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F126">
         <v>10483151175.8451</v>
       </c>
     </row>
@@ -3278,7 +3665,10 @@
       <c r="D127">
         <v>2021</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F127">
         <v>13366230219.5352</v>
       </c>
     </row>
@@ -3301,7 +3691,10 @@
       <c r="D128">
         <v>2019</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F128">
         <v>323109540251.855</v>
       </c>
     </row>
@@ -3324,7 +3717,10 @@
       <c r="D129">
         <v>2020</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F129">
         <v>270299984937.97</v>
       </c>
     </row>
@@ -3347,7 +3743,10 @@
       <c r="D130">
         <v>2021</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F130">
         <v>314464137241.33</v>
       </c>
     </row>
@@ -3370,7 +3769,10 @@
       <c r="D131">
         <v>2019</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F131">
         <v>1195019559.09381</v>
       </c>
     </row>
@@ -3393,7 +3795,10 @@
       <c r="D132">
         <v>2020</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F132">
         <v>1225039230.74083</v>
       </c>
     </row>
@@ -3416,7 +3821,10 @@
       <c r="D133">
         <v>2021</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F133">
         <v>1296089632.60039</v>
       </c>
     </row>
@@ -3439,7 +3847,10 @@
       <c r="D134">
         <v>2019</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F134">
         <v>1981845740.70615</v>
       </c>
     </row>
@@ -3462,7 +3873,10 @@
       <c r="D135">
         <v>2020</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F135">
         <v>1703698676.69742</v>
       </c>
     </row>
@@ -3485,7 +3899,10 @@
       <c r="D136">
         <v>2021</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F136">
         <v>1936174043.45293</v>
       </c>
     </row>
@@ -3508,7 +3925,10 @@
       <c r="D137">
         <v>2019</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F137">
         <v>64417670082.6127</v>
       </c>
     </row>
@@ -3531,7 +3951,10 @@
       <c r="D138">
         <v>2020</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F138">
         <v>62158002233.0279</v>
       </c>
     </row>
@@ -3554,7 +3977,10 @@
       <c r="D139">
         <v>2021</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F139">
         <v>64282438666.739</v>
       </c>
     </row>
@@ -3577,7 +4003,10 @@
       <c r="D140">
         <v>2019</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F140">
         <v>77428424853.89619</v>
       </c>
     </row>
@@ -3600,7 +4029,10 @@
       <c r="D141">
         <v>2020</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F141">
         <v>65896805290.3286</v>
       </c>
     </row>
@@ -3623,7 +4055,10 @@
       <c r="D142">
         <v>2021</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F142">
         <v>75295300457.2966</v>
       </c>
     </row>
@@ -3646,7 +4081,10 @@
       <c r="D143">
         <v>2019</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F143">
         <v>103428000000</v>
       </c>
     </row>
@@ -3669,7 +4107,10 @@
       <c r="D144">
         <v>2020</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F144">
         <v>107352000000</v>
       </c>
     </row>
@@ -3692,7 +4133,10 @@
       <c r="D145">
         <v>2019</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F145">
         <v>2995185474.86034</v>
       </c>
     </row>
@@ -3715,7 +4159,10 @@
       <c r="D146">
         <v>2020</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F146">
         <v>2496174748.60335</v>
       </c>
     </row>
@@ -3738,7 +4185,10 @@
       <c r="D147">
         <v>2021</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F147">
         <v>2699612458.10056</v>
       </c>
     </row>
@@ -3761,7 +4211,10 @@
       <c r="D148">
         <v>2019</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F148">
         <v>5943589103.56414</v>
       </c>
     </row>
@@ -3784,7 +4237,10 @@
       <c r="D149">
         <v>2020</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F149">
         <v>5608989199.56798</v>
       </c>
     </row>
@@ -3807,7 +4263,10 @@
       <c r="D150">
         <v>2021</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F150">
         <v>5898449687.97711</v>
       </c>
     </row>
@@ -3830,7 +4289,10 @@
       <c r="D151">
         <v>2019</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F151">
         <v>25944504645.6957</v>
       </c>
     </row>
@@ -3853,7 +4315,10 @@
       <c r="D152">
         <v>2020</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F152">
         <v>25008448886.3507</v>
       </c>
     </row>
@@ -3876,7 +4341,10 @@
       <c r="D153">
         <v>2021</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F153">
         <v>28407867534.0035</v>
       </c>
     </row>
@@ -3899,7 +4367,10 @@
       <c r="D154">
         <v>2019</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F154">
         <v>252548179964.897</v>
       </c>
     </row>
@@ -3922,7 +4393,10 @@
       <c r="D155">
         <v>2020</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F155">
         <v>245974558654.043</v>
       </c>
     </row>
@@ -3945,7 +4419,10 @@
       <c r="D156">
         <v>2021</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F156">
         <v>281777887121.451</v>
       </c>
     </row>
@@ -3968,7 +4445,10 @@
       <c r="D157">
         <v>2019</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F157">
         <v>3888226035921.56</v>
       </c>
     </row>
@@ -3991,7 +4471,10 @@
       <c r="D158">
         <v>2020</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F158">
         <v>3889668895299.62</v>
       </c>
     </row>
@@ -4014,7 +4497,10 @@
       <c r="D159">
         <v>2021</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F159">
         <v>4259934911821.64</v>
       </c>
     </row>
@@ -4037,7 +4523,10 @@
       <c r="D160">
         <v>2019</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F160">
         <v>3088853638.56832</v>
       </c>
     </row>
@@ -4060,7 +4549,10 @@
       <c r="D161">
         <v>2020</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F161">
         <v>3181071153.6622</v>
       </c>
     </row>
@@ -4083,7 +4575,10 @@
       <c r="D162">
         <v>2021</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F162">
         <v>3482987379.0942</v>
       </c>
     </row>
@@ -4106,7 +4601,10 @@
       <c r="D163">
         <v>2019</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F163">
         <v>611537037.037037</v>
       </c>
     </row>
@@ -4129,7 +4627,10 @@
       <c r="D164">
         <v>2020</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F164">
         <v>504214814.814815</v>
       </c>
     </row>
@@ -4152,7 +4653,10 @@
       <c r="D165">
         <v>2021</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F165">
         <v>554181481.481481</v>
       </c>
     </row>
@@ -4175,7 +4679,10 @@
       <c r="D166">
         <v>2019</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F166">
         <v>346498737961.635</v>
       </c>
     </row>
@@ -4198,7 +4705,10 @@
       <c r="D167">
         <v>2020</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F167">
         <v>355222449505.211</v>
       </c>
     </row>
@@ -4221,7 +4731,10 @@
       <c r="D168">
         <v>2021</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F168">
         <v>398303272764.46</v>
       </c>
     </row>
@@ -4244,7 +4757,10 @@
       <c r="D169">
         <v>2019</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F169">
         <v>88941299733.5018</v>
       </c>
     </row>
@@ -4267,7 +4783,10 @@
       <c r="D170">
         <v>2020</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F170">
         <v>78844702329.07851</v>
       </c>
     </row>
@@ -4290,7 +4809,10 @@
       <c r="D171">
         <v>2021</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F171">
         <v>94243453937.4462</v>
       </c>
     </row>
@@ -4313,7 +4835,10 @@
       <c r="D172">
         <v>2019</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F172">
         <v>171767403748.19</v>
       </c>
     </row>
@@ -4336,7 +4861,10 @@
       <c r="D173">
         <v>2020</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F173">
         <v>145009181490.62</v>
       </c>
     </row>
@@ -4359,7 +4887,10 @@
       <c r="D174">
         <v>2021</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F174">
         <v>163044443983.759</v>
       </c>
     </row>
@@ -4382,7 +4913,10 @@
       <c r="D175">
         <v>2019</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F175">
         <v>17207855739652.5</v>
       </c>
     </row>
@@ -4405,7 +4939,10 @@
       <c r="D176">
         <v>2020</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F176">
         <v>17486916629390.6</v>
       </c>
     </row>
@@ -4428,7 +4965,10 @@
       <c r="D177">
         <v>2021</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F177">
         <v>20751789915914.3</v>
       </c>
     </row>
@@ -4451,7 +4991,10 @@
       <c r="D178">
         <v>2019</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F178">
         <v>11638001740869.6</v>
       </c>
     </row>
@@ -4474,7 +5017,10 @@
       <c r="D179">
         <v>2020</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F179">
         <v>10851370332817.7</v>
       </c>
     </row>
@@ -4497,7 +5043,10 @@
       <c r="D180">
         <v>2021</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F180">
         <v>12637296304146.5</v>
       </c>
     </row>
@@ -4520,7 +5069,10 @@
       <c r="D181">
         <v>2019</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F181">
         <v>27028297830157.6</v>
       </c>
     </row>
@@ -4543,7 +5095,10 @@
       <c r="D182">
         <v>2020</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F182">
         <v>27127309724583.3</v>
       </c>
     </row>
@@ -4566,7 +5121,10 @@
       <c r="D183">
         <v>2021</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F183">
         <v>30911686458694.3</v>
       </c>
     </row>
@@ -4589,7 +5147,10 @@
       <c r="D184">
         <v>2019</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F184">
         <v>3248640014760.21</v>
       </c>
     </row>
@@ -4612,7 +5173,10 @@
       <c r="D185">
         <v>2020</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F185">
         <v>2982626888407.66</v>
       </c>
     </row>
@@ -4635,7 +5199,10 @@
       <c r="D186">
         <v>2021</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F186">
         <v>3517372658753.68</v>
       </c>
     </row>
@@ -4658,7 +5225,10 @@
       <c r="D187">
         <v>2019</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F187">
         <v>22909981097693.6</v>
       </c>
     </row>
@@ -4681,7 +5251,10 @@
       <c r="D188">
         <v>2020</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F188">
         <v>22139980728586.8</v>
       </c>
     </row>
@@ -4704,7 +5277,10 @@
       <c r="D189">
         <v>2021</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F189">
         <v>25082834224986.1</v>
       </c>
     </row>
@@ -4727,7 +5303,10 @@
       <c r="D190">
         <v>2019</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F190">
         <v>108108009000</v>
       </c>
     </row>
@@ -4750,7 +5329,10 @@
       <c r="D191">
         <v>2020</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F191">
         <v>99291124000</v>
       </c>
     </row>
@@ -4773,7 +5355,10 @@
       <c r="D192">
         <v>2021</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F192">
         <v>106165866000</v>
       </c>
     </row>
@@ -4796,7 +5381,10 @@
       <c r="D193">
         <v>2019</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F193">
         <v>303080865603.645</v>
       </c>
     </row>
@@ -4819,7 +5407,10 @@
       <c r="D194">
         <v>2020</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F194">
         <v>365252651278.852</v>
       </c>
     </row>
@@ -4842,7 +5433,10 @@
       <c r="D195">
         <v>2021</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F195">
         <v>404142766093.053</v>
       </c>
     </row>
@@ -4865,7 +5459,10 @@
       <c r="D196">
         <v>2019</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F196">
         <v>13418170804151.7</v>
       </c>
     </row>
@@ -4888,7 +5485,10 @@
       <c r="D197">
         <v>2020</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F197">
         <v>13085484520637.5</v>
       </c>
     </row>
@@ -4911,7 +5511,10 @@
       <c r="D198">
         <v>2021</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F198">
         <v>14563282816938.9</v>
       </c>
     </row>
@@ -4934,7 +5537,10 @@
       <c r="D199">
         <v>2019</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F199">
         <v>1394320055129.41</v>
       </c>
     </row>
@@ -4957,7 +5563,10 @@
       <c r="D200">
         <v>2020</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F200">
         <v>1276962685648.25</v>
       </c>
     </row>
@@ -4980,7 +5589,10 @@
       <c r="D201">
         <v>2021</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F201">
         <v>1427380681294.55</v>
       </c>
     </row>
@@ -5003,7 +5615,10 @@
       <c r="D202">
         <v>2019</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F202">
         <v>31081901909.2156</v>
       </c>
     </row>
@@ -5026,7 +5641,10 @@
       <c r="D203">
         <v>2020</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F203">
         <v>31370395572.7658</v>
       </c>
     </row>
@@ -5049,7 +5667,10 @@
       <c r="D204">
         <v>2021</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F204">
         <v>37191166151.98</v>
       </c>
     </row>
@@ -5072,7 +5693,10 @@
       <c r="D205">
         <v>2019</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F205">
         <v>95912590628.1412</v>
       </c>
     </row>
@@ -5095,7 +5719,10 @@
       <c r="D206">
         <v>2020</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F206">
         <v>107657734392.446</v>
       </c>
     </row>
@@ -5118,7 +5745,10 @@
       <c r="D207">
         <v>2021</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F207">
         <v>111271112329.975</v>
       </c>
     </row>
@@ -5141,7 +5771,10 @@
       <c r="D208">
         <v>2019</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F208">
         <v>15693403575262.4</v>
       </c>
     </row>
@@ -5164,7 +5797,10 @@
       <c r="D209">
         <v>2020</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F209">
         <v>15369441264656.7</v>
       </c>
     </row>
@@ -5187,7 +5823,10 @@
       <c r="D210">
         <v>2021</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F210">
         <v>17177419592825</v>
       </c>
     </row>
@@ -5210,7 +5849,10 @@
       <c r="D211">
         <v>2019</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F211">
         <v>1804386435814.39</v>
       </c>
     </row>
@@ -5233,7 +5875,10 @@
       <c r="D212">
         <v>2020</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F212">
         <v>1680894123972.54</v>
       </c>
     </row>
@@ -5256,7 +5901,10 @@
       <c r="D213">
         <v>2021</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F213">
         <v>1799023437650.12</v>
       </c>
     </row>
@@ -5279,7 +5927,10 @@
       <c r="D214">
         <v>2019</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F214">
         <v>268514916972.549</v>
       </c>
     </row>
@@ -5302,7 +5953,10 @@
       <c r="D215">
         <v>2020</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F215">
         <v>271891788362.647</v>
       </c>
     </row>
@@ -5325,7 +5979,10 @@
       <c r="D216">
         <v>2021</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F216">
         <v>297301883523.251</v>
       </c>
     </row>
@@ -5348,7 +6005,10 @@
       <c r="D217">
         <v>2019</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F217">
         <v>5481675173.38011</v>
       </c>
     </row>
@@ -5371,7 +6031,10 @@
       <c r="D218">
         <v>2020</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F218">
         <v>4477040340.45226</v>
       </c>
     </row>
@@ -5394,7 +6057,10 @@
       <c r="D219">
         <v>2021</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F219">
         <v>4296304590.01135</v>
       </c>
     </row>
@@ -5417,7 +6083,10 @@
       <c r="D220">
         <v>2019</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F220">
         <v>2728870246705.88</v>
       </c>
     </row>
@@ -5440,7 +6109,10 @@
       <c r="D221">
         <v>2020</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F221">
         <v>2639008701648.26</v>
       </c>
     </row>
@@ -5463,7 +6135,10 @@
       <c r="D222">
         <v>2021</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F222">
         <v>2957879759263.52</v>
       </c>
     </row>
@@ -5486,7 +6161,10 @@
       <c r="D223">
         <v>2019</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F223">
         <v>3275706960.14634</v>
       </c>
     </row>
@@ -5509,7 +6187,10 @@
       <c r="D224">
         <v>2020</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F224">
         <v>3248696901.60652</v>
       </c>
     </row>
@@ -5532,7 +6213,10 @@
       <c r="D225">
         <v>2021</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F225">
         <v>3649886275.07118</v>
       </c>
     </row>
@@ -5555,7 +6239,10 @@
       <c r="D226">
         <v>2019</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F226">
         <v>412000000</v>
       </c>
     </row>
@@ -5578,7 +6265,10 @@
       <c r="D227">
         <v>2020</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F227">
         <v>408000000</v>
       </c>
     </row>
@@ -5601,7 +6291,10 @@
       <c r="D228">
         <v>2021</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F228">
         <v>404028900</v>
       </c>
     </row>
@@ -5624,7 +6317,10 @@
       <c r="D229">
         <v>2019</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F229">
         <v>16874405460.1955</v>
       </c>
     </row>
@@ -5647,7 +6343,10 @@
       <c r="D230">
         <v>2020</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F230">
         <v>15314577167.8211</v>
       </c>
     </row>
@@ -5670,7 +6369,10 @@
       <c r="D231">
         <v>2021</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F231">
         <v>20216843173.9702</v>
       </c>
     </row>
@@ -5693,7 +6395,10 @@
       <c r="D232">
         <v>2019</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F232">
         <v>2857057847953.02</v>
       </c>
     </row>
@@ -5716,7 +6421,10 @@
       <c r="D233">
         <v>2020</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F233">
         <v>2704609160088.15</v>
       </c>
     </row>
@@ -5739,7 +6447,10 @@
       <c r="D234">
         <v>2021</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F234">
         <v>3131377762925.95</v>
       </c>
     </row>
@@ -5762,7 +6473,10 @@
       <c r="D235">
         <v>2019</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F235">
         <v>17470436258.5131</v>
       </c>
     </row>
@@ -5785,7 +6499,10 @@
       <c r="D236">
         <v>2020</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F236">
         <v>15842922532.7202</v>
       </c>
     </row>
@@ -5808,7 +6525,10 @@
       <c r="D237">
         <v>2021</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F237">
         <v>18629365597.0017</v>
       </c>
     </row>
@@ -5831,7 +6551,10 @@
       <c r="D238">
         <v>2019</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F238">
         <v>68337537815.7703</v>
       </c>
     </row>
@@ -5854,7 +6577,10 @@
       <c r="D239">
         <v>2020</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F239">
         <v>70043199813.68851</v>
       </c>
     </row>
@@ -5877,7 +6603,10 @@
       <c r="D240">
         <v>2021</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F240">
         <v>77594279054.8795</v>
       </c>
     </row>
@@ -5900,7 +6629,10 @@
       <c r="D241">
         <v>2019</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F241">
         <v>13442861443.7506</v>
       </c>
     </row>
@@ -5923,7 +6655,10 @@
       <c r="D242">
         <v>2020</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F242">
         <v>14177835816.2777</v>
       </c>
     </row>
@@ -5946,7 +6681,10 @@
       <c r="D243">
         <v>2021</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F243">
         <v>16091817842.2342</v>
       </c>
     </row>
@@ -5969,7 +6707,10 @@
       <c r="D244">
         <v>2019</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F244">
         <v>1813608279.65044</v>
       </c>
     </row>
@@ -5992,7 +6733,10 @@
       <c r="D245">
         <v>2020</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F245">
         <v>1812169483.72578</v>
       </c>
     </row>
@@ -6015,7 +6759,10 @@
       <c r="D246">
         <v>2021</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F246">
         <v>2038417462.37695</v>
       </c>
     </row>
@@ -6038,7 +6785,10 @@
       <c r="D247">
         <v>2019</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F247">
         <v>1439638443.38133</v>
       </c>
     </row>
@@ -6061,7 +6811,10 @@
       <c r="D248">
         <v>2020</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F248">
         <v>1431758242.90375</v>
       </c>
     </row>
@@ -6084,7 +6837,10 @@
       <c r="D249">
         <v>2021</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F249">
         <v>1638517533.16504</v>
       </c>
     </row>
@@ -6107,7 +6863,10 @@
       <c r="D250">
         <v>2019</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F250">
         <v>11364133801.8914</v>
       </c>
     </row>
@@ -6130,7 +6889,10 @@
       <c r="D251">
         <v>2020</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F251">
         <v>10099158074.7273</v>
       </c>
     </row>
@@ -6153,7 +6915,10 @@
       <c r="D252">
         <v>2021</v>
       </c>
-      <c r="E252">
+      <c r="E252" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F252">
         <v>12269392839.7472</v>
       </c>
     </row>
@@ -6176,7 +6941,10 @@
       <c r="D253">
         <v>2019</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F253">
         <v>205257014892.502</v>
       </c>
     </row>
@@ -6199,7 +6967,10 @@
       <c r="D254">
         <v>2020</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F254">
         <v>188925995936.807</v>
       </c>
     </row>
@@ -6222,7 +6993,10 @@
       <c r="D255">
         <v>2021</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F255">
         <v>214873879833.648</v>
       </c>
     </row>
@@ -6245,7 +7019,10 @@
       <c r="D256">
         <v>2019</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F256">
         <v>1213485185.18519</v>
       </c>
     </row>
@@ -6268,7 +7045,10 @@
       <c r="D257">
         <v>2020</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F257">
         <v>1043414814.81481</v>
       </c>
     </row>
@@ -6291,7 +7071,10 @@
       <c r="D258">
         <v>2021</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F258">
         <v>1122807407.40741</v>
       </c>
     </row>
@@ -6314,7 +7097,10 @@
       <c r="D259">
         <v>2019</v>
       </c>
-      <c r="E259">
+      <c r="E259" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F259">
         <v>2994332323.74726</v>
       </c>
     </row>
@@ -6337,7 +7123,10 @@
       <c r="D260">
         <v>2020</v>
       </c>
-      <c r="E260">
+      <c r="E260" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F260">
         <v>3076015346.7541</v>
       </c>
     </row>
@@ -6360,7 +7149,10 @@
       <c r="D261">
         <v>2019</v>
       </c>
-      <c r="E261">
+      <c r="E261" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F261">
         <v>77170421167.5134</v>
       </c>
     </row>
@@ -6383,7 +7175,10 @@
       <c r="D262">
         <v>2020</v>
       </c>
-      <c r="E262">
+      <c r="E262" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F262">
         <v>77625486978.2561</v>
       </c>
     </row>
@@ -6406,7 +7201,10 @@
       <c r="D263">
         <v>2021</v>
       </c>
-      <c r="E263">
+      <c r="E263" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F263">
         <v>85985752107.4679</v>
       </c>
     </row>
@@ -6429,7 +7227,10 @@
       <c r="D264">
         <v>2019</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F264">
         <v>6366000000</v>
       </c>
     </row>
@@ -6452,7 +7253,10 @@
       <c r="D265">
         <v>2020</v>
       </c>
-      <c r="E265">
+      <c r="E265" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F265">
         <v>5886000000</v>
       </c>
     </row>
@@ -6475,7 +7279,10 @@
       <c r="D266">
         <v>2021</v>
       </c>
-      <c r="E266">
+      <c r="E266" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F266">
         <v>6123000000</v>
       </c>
     </row>
@@ -6498,7 +7305,10 @@
       <c r="D267">
         <v>2019</v>
       </c>
-      <c r="E267">
+      <c r="E267" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F267">
         <v>5173760191.84652</v>
       </c>
     </row>
@@ -6521,7 +7331,10 @@
       <c r="D268">
         <v>2020</v>
       </c>
-      <c r="E268">
+      <c r="E268" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F268">
         <v>5471256594.72422</v>
       </c>
     </row>
@@ -6544,7 +7357,10 @@
       <c r="D269">
         <v>2021</v>
       </c>
-      <c r="E269">
+      <c r="E269" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F269">
         <v>8044498800.95923</v>
       </c>
     </row>
@@ -6567,7 +7383,10 @@
       <c r="D270">
         <v>2019</v>
       </c>
-      <c r="E270">
+      <c r="E270" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F270">
         <v>363052489184.395</v>
       </c>
     </row>
@@ -6590,7 +7409,10 @@
       <c r="D271">
         <v>2020</v>
       </c>
-      <c r="E271">
+      <c r="E271" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F271">
         <v>344932192028.051</v>
       </c>
     </row>
@@ -6613,7 +7435,10 @@
       <c r="D272">
         <v>2021</v>
       </c>
-      <c r="E272">
+      <c r="E272" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F272">
         <v>369176400967.427</v>
       </c>
     </row>
@@ -6636,7 +7461,10 @@
       <c r="D273">
         <v>2019</v>
       </c>
-      <c r="E273">
+      <c r="E273" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F273">
         <v>25089976946.7736</v>
       </c>
     </row>
@@ -6659,7 +7487,10 @@
       <c r="D274">
         <v>2020</v>
       </c>
-      <c r="E274">
+      <c r="E274" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F274">
         <v>23827840809.7014</v>
       </c>
     </row>
@@ -6682,7 +7513,10 @@
       <c r="D275">
         <v>2021</v>
       </c>
-      <c r="E275">
+      <c r="E275" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F275">
         <v>28488668301.6401</v>
       </c>
     </row>
@@ -6705,7 +7539,10 @@
       <c r="D276">
         <v>2019</v>
       </c>
-      <c r="E276">
+      <c r="E276" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F276">
         <v>797571800632.385</v>
       </c>
     </row>
@@ -6728,7 +7565,10 @@
       <c r="D277">
         <v>2020</v>
       </c>
-      <c r="E277">
+      <c r="E277" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F277">
         <v>803236484236.191</v>
       </c>
     </row>
@@ -6751,7 +7591,10 @@
       <c r="D278">
         <v>2021</v>
       </c>
-      <c r="E278">
+      <c r="E278" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F278">
         <v>891901460388.385</v>
       </c>
     </row>
@@ -6774,7 +7617,10 @@
       <c r="D279">
         <v>2019</v>
       </c>
-      <c r="E279">
+      <c r="E279" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F279">
         <v>62327983579.5899</v>
       </c>
     </row>
@@ -6797,7 +7643,10 @@
       <c r="D280">
         <v>2020</v>
       </c>
-      <c r="E280">
+      <c r="E280" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F280">
         <v>57472012426.6853</v>
       </c>
     </row>
@@ -6820,7 +7669,10 @@
       <c r="D281">
         <v>2021</v>
       </c>
-      <c r="E281">
+      <c r="E281" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F281">
         <v>68955083280.1922</v>
       </c>
     </row>
@@ -6843,7 +7695,10 @@
       <c r="D282">
         <v>2019</v>
       </c>
-      <c r="E282">
+      <c r="E282" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F282">
         <v>14785839382.9002</v>
       </c>
     </row>
@@ -6866,7 +7721,10 @@
       <c r="D283">
         <v>2020</v>
       </c>
-      <c r="E283">
+      <c r="E283" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F283">
         <v>14508218017.4032</v>
       </c>
     </row>
@@ -6889,7 +7747,10 @@
       <c r="D284">
         <v>2021</v>
       </c>
-      <c r="E284">
+      <c r="E284" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F284">
         <v>20944392615.0803</v>
       </c>
     </row>
@@ -6912,7 +7773,10 @@
       <c r="D285">
         <v>2019</v>
       </c>
-      <c r="E285">
+      <c r="E285" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F285">
         <v>163988594921.902</v>
       </c>
     </row>
@@ -6935,7 +7799,10 @@
       <c r="D286">
         <v>2020</v>
       </c>
-      <c r="E286">
+      <c r="E286" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F286">
         <v>157182045260.23</v>
       </c>
     </row>
@@ -6958,7 +7825,10 @@
       <c r="D287">
         <v>2021</v>
       </c>
-      <c r="E287">
+      <c r="E287" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F287">
         <v>181848022233.89</v>
       </c>
     </row>
@@ -6981,7 +7851,10 @@
       <c r="D288">
         <v>2019</v>
       </c>
-      <c r="E288">
+      <c r="E288" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F288">
         <v>31250632838977.7</v>
       </c>
     </row>
@@ -7004,7 +7877,10 @@
       <c r="D289">
         <v>2020</v>
       </c>
-      <c r="E289">
+      <c r="E289" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F289">
         <v>30068953560995.4</v>
       </c>
     </row>
@@ -7027,7 +7903,10 @@
       <c r="D290">
         <v>2021</v>
       </c>
-      <c r="E290">
+      <c r="E290" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F290">
         <v>35511412304437.1</v>
       </c>
     </row>
@@ -7050,7 +7929,10 @@
       <c r="D291">
         <v>2019</v>
       </c>
-      <c r="E291">
+      <c r="E291" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F291">
         <v>33600177295748.1</v>
       </c>
     </row>
@@ -7073,7 +7955,10 @@
       <c r="D292">
         <v>2020</v>
       </c>
-      <c r="E292">
+      <c r="E292" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F292">
         <v>32404400348760.8</v>
       </c>
     </row>
@@ -7096,7 +7981,10 @@
       <c r="D293">
         <v>2021</v>
       </c>
-      <c r="E293">
+      <c r="E293" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F293">
         <v>38062847856443.9</v>
       </c>
     </row>
@@ -7119,7 +8007,10 @@
       <c r="D294">
         <v>2019</v>
       </c>
-      <c r="E294">
+      <c r="E294" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F294">
         <v>2348783962878.72</v>
       </c>
     </row>
@@ -7142,7 +8033,10 @@
       <c r="D295">
         <v>2020</v>
       </c>
-      <c r="E295">
+      <c r="E295" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F295">
         <v>2335046416001.58</v>
       </c>
     </row>
@@ -7165,7 +8059,10 @@
       <c r="D296">
         <v>2021</v>
       </c>
-      <c r="E296">
+      <c r="E296" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F296">
         <v>2549112031362.93</v>
       </c>
     </row>
@@ -7188,7 +8085,10 @@
       <c r="D297">
         <v>2019</v>
       </c>
-      <c r="E297">
+      <c r="E297" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F297">
         <v>1042643234199.04</v>
       </c>
     </row>
@@ -7211,7 +8111,10 @@
       <c r="D298">
         <v>2020</v>
       </c>
-      <c r="E298">
+      <c r="E298" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F298">
         <v>1002074719263.99</v>
       </c>
     </row>
@@ -7234,7 +8137,10 @@
       <c r="D299">
         <v>2021</v>
       </c>
-      <c r="E299">
+      <c r="E299" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F299">
         <v>1096478315864.49</v>
       </c>
     </row>
@@ -7257,7 +8163,10 @@
       <c r="D300">
         <v>2019</v>
       </c>
-      <c r="E300">
+      <c r="E300" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F300">
         <v>1119099868265.25</v>
       </c>
     </row>
@@ -7280,7 +8189,10 @@
       <c r="D301">
         <v>2020</v>
       </c>
-      <c r="E301">
+      <c r="E301" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F301">
         <v>1058688935454.78</v>
       </c>
     </row>
@@ -7303,7 +8215,10 @@
       <c r="D302">
         <v>2021</v>
       </c>
-      <c r="E302">
+      <c r="E302" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F302">
         <v>1186092991320.04</v>
       </c>
     </row>
@@ -7326,7 +8241,10 @@
       <c r="D303">
         <v>2019</v>
       </c>
-      <c r="E303">
+      <c r="E303" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F303">
         <v>1308461393704.39</v>
       </c>
     </row>
@@ -7349,7 +8267,10 @@
       <c r="D304">
         <v>2020</v>
       </c>
-      <c r="E304">
+      <c r="E304" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F304">
         <v>1336381367316.97</v>
       </c>
     </row>
@@ -7372,7 +8293,10 @@
       <c r="D305">
         <v>2021</v>
       </c>
-      <c r="E305">
+      <c r="E305" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F305">
         <v>1456252171238.16</v>
       </c>
     </row>
@@ -7395,7 +8319,10 @@
       <c r="D306">
         <v>2019</v>
       </c>
-      <c r="E306">
+      <c r="E306" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F306">
         <v>7315388052.08067</v>
       </c>
     </row>
@@ -7418,7 +8345,10 @@
       <c r="D307">
         <v>2019</v>
       </c>
-      <c r="E307">
+      <c r="E307" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F307">
         <v>2831552222519.99</v>
       </c>
     </row>
@@ -7441,7 +8371,10 @@
       <c r="D308">
         <v>2020</v>
       </c>
-      <c r="E308">
+      <c r="E308" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F308">
         <v>2667687951796.5</v>
       </c>
     </row>
@@ -7464,7 +8397,10 @@
       <c r="D309">
         <v>2021</v>
       </c>
-      <c r="E309">
+      <c r="E309" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F309">
         <v>3176295065497.24</v>
       </c>
     </row>
@@ -7487,7 +8423,10 @@
       <c r="D310">
         <v>2019</v>
       </c>
-      <c r="E310">
+      <c r="E310" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F310">
         <v>399321701632.431</v>
       </c>
     </row>
@@ -7510,7 +8449,10 @@
       <c r="D311">
         <v>2020</v>
       </c>
-      <c r="E311">
+      <c r="E311" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F311">
         <v>425852281928.121</v>
       </c>
     </row>
@@ -7533,7 +8475,10 @@
       <c r="D312">
         <v>2021</v>
       </c>
-      <c r="E312">
+      <c r="E312" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F312">
         <v>504182603275.542</v>
       </c>
     </row>
@@ -7556,7 +8501,10 @@
       <c r="D313">
         <v>2019</v>
       </c>
-      <c r="E313">
+      <c r="E313" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F313">
         <v>283746685180.338</v>
       </c>
     </row>
@@ -7579,7 +8527,10 @@
       <c r="D314">
         <v>2020</v>
       </c>
-      <c r="E314">
+      <c r="E314" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F314">
         <v>239735571102.495</v>
       </c>
     </row>
@@ -7602,7 +8553,10 @@
       <c r="D315">
         <v>2021</v>
       </c>
-      <c r="E315">
+      <c r="E315" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F315">
         <v>359713152725.063</v>
       </c>
     </row>
@@ -7625,7 +8579,10 @@
       <c r="D316">
         <v>2019</v>
       </c>
-      <c r="E316">
+      <c r="E316" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F316">
         <v>233636097800.338</v>
       </c>
     </row>
@@ -7648,7 +8605,10 @@
       <c r="D317">
         <v>2020</v>
       </c>
-      <c r="E317">
+      <c r="E317" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F317">
         <v>184369797315.436</v>
       </c>
     </row>
@@ -7671,7 +8631,10 @@
       <c r="D318">
         <v>2021</v>
       </c>
-      <c r="E318">
+      <c r="E318" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F318">
         <v>207889333724.138</v>
       </c>
     </row>
@@ -7694,7 +8657,10 @@
       <c r="D319">
         <v>2019</v>
       </c>
-      <c r="E319">
+      <c r="E319" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F319">
         <v>24826102119.6357</v>
       </c>
     </row>
@@ -7717,7 +8683,10 @@
       <c r="D320">
         <v>2020</v>
       </c>
-      <c r="E320">
+      <c r="E320" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F320">
         <v>21694674809.9321</v>
       </c>
     </row>
@@ -7740,7 +8709,10 @@
       <c r="D321">
         <v>2021</v>
       </c>
-      <c r="E321">
+      <c r="E321" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F321">
         <v>25602419210.3374</v>
       </c>
     </row>
@@ -7763,7 +8735,10 @@
       <c r="D322">
         <v>2019</v>
       </c>
-      <c r="E322">
+      <c r="E322" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F322">
         <v>402470513619.148</v>
       </c>
     </row>
@@ -7786,7 +8761,10 @@
       <c r="D323">
         <v>2020</v>
       </c>
-      <c r="E323">
+      <c r="E323" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F323">
         <v>413267669231.522</v>
       </c>
     </row>
@@ -7809,7 +8787,10 @@
       <c r="D324">
         <v>2021</v>
       </c>
-      <c r="E324">
+      <c r="E324" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F324">
         <v>488526545878.891</v>
       </c>
     </row>
@@ -7832,7 +8813,10 @@
       <c r="D325">
         <v>2019</v>
       </c>
-      <c r="E325">
+      <c r="E325" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F325">
         <v>2011302198827.45</v>
       </c>
     </row>
@@ -7855,7 +8839,10 @@
       <c r="D326">
         <v>2020</v>
       </c>
-      <c r="E326">
+      <c r="E326" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F326">
         <v>1896755301518.14</v>
       </c>
     </row>
@@ -7878,7 +8865,10 @@
       <c r="D327">
         <v>2021</v>
       </c>
-      <c r="E327">
+      <c r="E327" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F327">
         <v>2107702842669.73</v>
       </c>
     </row>
@@ -7901,7 +8891,10 @@
       <c r="D328">
         <v>2019</v>
       </c>
-      <c r="E328">
+      <c r="E328" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F328">
         <v>15830768549.8916</v>
       </c>
     </row>
@@ -7924,7 +8917,10 @@
       <c r="D329">
         <v>2020</v>
       </c>
-      <c r="E329">
+      <c r="E329" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F329">
         <v>13812425036.5864</v>
       </c>
     </row>
@@ -7947,7 +8943,10 @@
       <c r="D330">
         <v>2021</v>
       </c>
-      <c r="E330">
+      <c r="E330" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F330">
         <v>14657586937.0735</v>
       </c>
     </row>
@@ -7970,7 +8969,10 @@
       <c r="D331">
         <v>2019</v>
       </c>
-      <c r="E331">
+      <c r="E331" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F331">
         <v>44993992365.1297</v>
       </c>
     </row>
@@ -7993,7 +8995,10 @@
       <c r="D332">
         <v>2020</v>
       </c>
-      <c r="E332">
+      <c r="E332" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F332">
         <v>44182298291.8206</v>
       </c>
     </row>
@@ -8016,7 +9021,10 @@
       <c r="D333">
         <v>2021</v>
       </c>
-      <c r="E333">
+      <c r="E333" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F333">
         <v>45744271658.9141</v>
       </c>
     </row>
@@ -8039,7 +9047,10 @@
       <c r="D334">
         <v>2019</v>
       </c>
-      <c r="E334">
+      <c r="E334" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F334">
         <v>5123318151510.62</v>
       </c>
     </row>
@@ -8062,7 +9073,10 @@
       <c r="D335">
         <v>2020</v>
       </c>
-      <c r="E335">
+      <c r="E335" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F335">
         <v>5040107754084.11</v>
       </c>
     </row>
@@ -8085,7 +9099,10 @@
       <c r="D336">
         <v>2021</v>
       </c>
-      <c r="E336">
+      <c r="E336" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F336">
         <v>4940877780755.33</v>
       </c>
     </row>
@@ -8108,7 +9125,10 @@
       <c r="D337">
         <v>2019</v>
       </c>
-      <c r="E337">
+      <c r="E337" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F337">
         <v>181667190075.541</v>
       </c>
     </row>
@@ -8131,7 +9151,10 @@
       <c r="D338">
         <v>2020</v>
       </c>
-      <c r="E338">
+      <c r="E338" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F338">
         <v>171082379532.988</v>
       </c>
     </row>
@@ -8154,7 +9177,10 @@
       <c r="D339">
         <v>2021</v>
       </c>
-      <c r="E339">
+      <c r="E339" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F339">
         <v>197112255360.612</v>
       </c>
     </row>
@@ -8177,7 +9203,10 @@
       <c r="D340">
         <v>2019</v>
       </c>
-      <c r="E340">
+      <c r="E340" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F340">
         <v>100379713697.421</v>
       </c>
     </row>
@@ -8200,7 +9229,10 @@
       <c r="D341">
         <v>2020</v>
       </c>
-      <c r="E341">
+      <c r="E341" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F341">
         <v>100666542665.72</v>
       </c>
     </row>
@@ -8223,7 +9255,10 @@
       <c r="D342">
         <v>2021</v>
       </c>
-      <c r="E342">
+      <c r="E342" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F342">
         <v>110347079517.356</v>
       </c>
     </row>
@@ -8246,7 +9281,10 @@
       <c r="D343">
         <v>2019</v>
       </c>
-      <c r="E343">
+      <c r="E343" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F343">
         <v>8871026074.19762</v>
       </c>
     </row>
@@ -8269,7 +9307,10 @@
       <c r="D344">
         <v>2020</v>
       </c>
-      <c r="E344">
+      <c r="E344" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F344">
         <v>7780874536.66054</v>
       </c>
     </row>
@@ -8292,7 +9333,10 @@
       <c r="D345">
         <v>2021</v>
       </c>
-      <c r="E345">
+      <c r="E345" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F345">
         <v>8543423502.6134</v>
       </c>
     </row>
@@ -8315,7 +9359,10 @@
       <c r="D346">
         <v>2019</v>
       </c>
-      <c r="E346">
+      <c r="E346" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F346">
         <v>27089389786.979</v>
       </c>
     </row>
@@ -8338,7 +9385,10 @@
       <c r="D347">
         <v>2020</v>
       </c>
-      <c r="E347">
+      <c r="E347" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F347">
         <v>25872798012.1938</v>
       </c>
     </row>
@@ -8361,7 +9411,10 @@
       <c r="D348">
         <v>2021</v>
       </c>
-      <c r="E348">
+      <c r="E348" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F348">
         <v>26961061119.7957</v>
       </c>
     </row>
@@ -8384,7 +9437,10 @@
       <c r="D349">
         <v>2019</v>
       </c>
-      <c r="E349">
+      <c r="E349" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F349">
         <v>177935349.322211</v>
       </c>
     </row>
@@ -8407,7 +9463,10 @@
       <c r="D350">
         <v>2020</v>
       </c>
-      <c r="E350">
+      <c r="E350" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F350">
         <v>180911843.644622</v>
       </c>
     </row>
@@ -8430,7 +9489,10 @@
       <c r="D351">
         <v>2021</v>
       </c>
-      <c r="E351">
+      <c r="E351" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F351">
         <v>207031250</v>
       </c>
     </row>
@@ -8453,7 +9515,10 @@
       <c r="D352">
         <v>2019</v>
       </c>
-      <c r="E352">
+      <c r="E352" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F352">
         <v>1107840740.74074</v>
       </c>
     </row>
@@ -8476,7 +9541,10 @@
       <c r="D353">
         <v>2020</v>
       </c>
-      <c r="E353">
+      <c r="E353" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F353">
         <v>884525925.925926</v>
       </c>
     </row>
@@ -8499,7 +9567,10 @@
       <c r="D354">
         <v>2021</v>
       </c>
-      <c r="E354">
+      <c r="E354" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F354">
         <v>860840740.740741</v>
       </c>
     </row>
@@ -8522,7 +9593,10 @@
       <c r="D355">
         <v>2019</v>
       </c>
-      <c r="E355">
+      <c r="E355" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F355">
         <v>1651422932447.77</v>
       </c>
     </row>
@@ -8545,7 +9619,10 @@
       <c r="D356">
         <v>2020</v>
       </c>
-      <c r="E356">
+      <c r="E356" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F356">
         <v>1644312831906.17</v>
       </c>
     </row>
@@ -8568,7 +9645,10 @@
       <c r="D357">
         <v>2021</v>
       </c>
-      <c r="E357">
+      <c r="E357" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F357">
         <v>1810955871380.98</v>
       </c>
     </row>
@@ -8591,7 +9671,10 @@
       <c r="D358">
         <v>2019</v>
       </c>
-      <c r="E358">
+      <c r="E358" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F358">
         <v>136196760180.976</v>
       </c>
     </row>
@@ -8614,7 +9697,10 @@
       <c r="D359">
         <v>2020</v>
       </c>
-      <c r="E359">
+      <c r="E359" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F359">
         <v>105960225688.145</v>
       </c>
     </row>
@@ -8637,7 +9723,10 @@
       <c r="D360">
         <v>2019</v>
       </c>
-      <c r="E360">
+      <c r="E360" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F360">
         <v>4773979941240.86</v>
       </c>
     </row>
@@ -8660,7 +9749,10 @@
       <c r="D361">
         <v>2020</v>
       </c>
-      <c r="E361">
+      <c r="E361" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F361">
         <v>3997651287256.03</v>
       </c>
     </row>
@@ -8683,7 +9775,10 @@
       <c r="D362">
         <v>2021</v>
       </c>
-      <c r="E362">
+      <c r="E362" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F362">
         <v>4585103994306.3</v>
       </c>
     </row>
@@ -8706,7 +9801,10 @@
       <c r="D363">
         <v>2019</v>
       </c>
-      <c r="E363">
+      <c r="E363" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F363">
         <v>18740559554.1632</v>
       </c>
     </row>
@@ -8729,7 +9827,10 @@
       <c r="D364">
         <v>2020</v>
       </c>
-      <c r="E364">
+      <c r="E364" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F364">
         <v>18981800705.0794</v>
       </c>
     </row>
@@ -8752,7 +9853,10 @@
       <c r="D365">
         <v>2021</v>
       </c>
-      <c r="E365">
+      <c r="E365" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F365">
         <v>18827148509.5798</v>
       </c>
     </row>
@@ -8775,7 +9879,10 @@
       <c r="D366">
         <v>2019</v>
       </c>
-      <c r="E366">
+      <c r="E366" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F366">
         <v>51953744530.2445</v>
       </c>
     </row>
@@ -8798,7 +9905,10 @@
       <c r="D367">
         <v>2020</v>
       </c>
-      <c r="E367">
+      <c r="E367" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F367">
         <v>31712128253.7961</v>
       </c>
     </row>
@@ -8821,7 +9931,10 @@
       <c r="D368">
         <v>2021</v>
       </c>
-      <c r="E368">
+      <c r="E368" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F368">
         <v>23131940280.7316</v>
       </c>
     </row>
@@ -8844,7 +9957,10 @@
       <c r="D369">
         <v>2019</v>
       </c>
-      <c r="E369">
+      <c r="E369" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F369">
         <v>3319596500</v>
       </c>
     </row>
@@ -8867,7 +9983,10 @@
       <c r="D370">
         <v>2020</v>
       </c>
-      <c r="E370">
+      <c r="E370" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F370">
         <v>3039982500</v>
       </c>
     </row>
@@ -8890,7 +10009,10 @@
       <c r="D371">
         <v>2021</v>
       </c>
-      <c r="E371">
+      <c r="E371" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F371">
         <v>3509000000</v>
       </c>
     </row>
@@ -8913,7 +10035,10 @@
       <c r="D372">
         <v>2019</v>
       </c>
-      <c r="E372">
+      <c r="E372" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F372">
         <v>69252306372.02319</v>
       </c>
     </row>
@@ -8936,7 +10061,10 @@
       <c r="D373">
         <v>2020</v>
       </c>
-      <c r="E373">
+      <c r="E373" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F373">
         <v>50357312594.5129</v>
       </c>
     </row>
@@ -8959,7 +10087,10 @@
       <c r="D374">
         <v>2021</v>
       </c>
-      <c r="E374">
+      <c r="E374" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F374">
         <v>42817472975.3677</v>
       </c>
     </row>
@@ -8982,7 +10113,10 @@
       <c r="D375">
         <v>2019</v>
       </c>
-      <c r="E375">
+      <c r="E375" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F375">
         <v>2094201725.17451</v>
       </c>
     </row>
@@ -9005,7 +10139,10 @@
       <c r="D376">
         <v>2020</v>
       </c>
-      <c r="E376">
+      <c r="E376" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F376">
         <v>1516015718.73491</v>
       </c>
     </row>
@@ -9028,7 +10165,10 @@
       <c r="D377">
         <v>2021</v>
       </c>
-      <c r="E377">
+      <c r="E377" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F377">
         <v>1691275156.6002</v>
       </c>
     </row>
@@ -9051,7 +10191,10 @@
       <c r="D378">
         <v>2019</v>
       </c>
-      <c r="E378">
+      <c r="E378" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F378">
         <v>5618711473342.91</v>
       </c>
     </row>
@@ -9074,7 +10217,10 @@
       <c r="D379">
         <v>2020</v>
       </c>
-      <c r="E379">
+      <c r="E379" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F379">
         <v>4742371960398.12</v>
       </c>
     </row>
@@ -9097,7 +10243,10 @@
       <c r="D380">
         <v>2021</v>
       </c>
-      <c r="E380">
+      <c r="E380" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F380">
         <v>5454428996198.05</v>
       </c>
     </row>
@@ -9120,7 +10269,10 @@
       <c r="D381">
         <v>2019</v>
       </c>
-      <c r="E381">
+      <c r="E381" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F381">
         <v>1153041256783.79</v>
       </c>
     </row>
@@ -9143,7 +10295,10 @@
       <c r="D382">
         <v>2020</v>
       </c>
-      <c r="E382">
+      <c r="E382" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F382">
         <v>1176576556341.42</v>
       </c>
     </row>
@@ -9166,7 +10321,10 @@
       <c r="D383">
         <v>2021</v>
       </c>
-      <c r="E383">
+      <c r="E383" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F383">
         <v>1280907562189.61</v>
       </c>
     </row>
@@ -9189,7 +10347,10 @@
       <c r="D384">
         <v>2019</v>
       </c>
-      <c r="E384">
+      <c r="E384" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F384">
         <v>6427248943.44939</v>
       </c>
     </row>
@@ -9212,7 +10373,10 @@
       <c r="D385">
         <v>2020</v>
       </c>
-      <c r="E385">
+      <c r="E385" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F385">
         <v>6113951011.71459</v>
       </c>
     </row>
@@ -9235,7 +10399,10 @@
       <c r="D386">
         <v>2019</v>
       </c>
-      <c r="E386">
+      <c r="E386" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F386">
         <v>89014990791.90511</v>
       </c>
     </row>
@@ -9258,7 +10425,10 @@
       <c r="D387">
         <v>2020</v>
       </c>
-      <c r="E387">
+      <c r="E387" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F387">
         <v>85349112170.9594</v>
       </c>
     </row>
@@ -9281,7 +10451,10 @@
       <c r="D388">
         <v>2021</v>
       </c>
-      <c r="E388">
+      <c r="E388" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F388">
         <v>88927263724.85921</v>
       </c>
     </row>
@@ -9304,7 +10477,10 @@
       <c r="D389">
         <v>2019</v>
       </c>
-      <c r="E389">
+      <c r="E389" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F389">
         <v>32079765914807.5</v>
       </c>
     </row>
@@ -9327,7 +10503,10 @@
       <c r="D390">
         <v>2020</v>
       </c>
-      <c r="E390">
+      <c r="E390" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F390">
         <v>30948393969161.3</v>
       </c>
     </row>
@@ -9350,7 +10529,10 @@
       <c r="D391">
         <v>2021</v>
       </c>
-      <c r="E391">
+      <c r="E391" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F391">
         <v>36370594658882.7</v>
       </c>
     </row>
@@ -9373,7 +10555,10 @@
       <c r="D392">
         <v>2019</v>
       </c>
-      <c r="E392">
+      <c r="E392" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F392">
         <v>2453980835.24819</v>
       </c>
     </row>
@@ -9396,7 +10581,10 @@
       <c r="D393">
         <v>2020</v>
       </c>
-      <c r="E393">
+      <c r="E393" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F393">
         <v>2231214507.47611</v>
       </c>
     </row>
@@ -9419,7 +10607,10 @@
       <c r="D394">
         <v>2021</v>
       </c>
-      <c r="E394">
+      <c r="E394" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F394">
         <v>2496134680.31694</v>
       </c>
     </row>
@@ -9442,7 +10633,10 @@
       <c r="D395">
         <v>2019</v>
       </c>
-      <c r="E395">
+      <c r="E395" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F395">
         <v>23047002747227.5</v>
       </c>
     </row>
@@ -9465,7 +10659,10 @@
       <c r="D396">
         <v>2020</v>
       </c>
-      <c r="E396">
+      <c r="E396" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F396">
         <v>22493447284783</v>
       </c>
     </row>
@@ -9488,7 +10685,10 @@
       <c r="D397">
         <v>2021</v>
       </c>
-      <c r="E397">
+      <c r="E397" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F397">
         <v>26622141277937</v>
       </c>
     </row>
@@ -9511,7 +10711,10 @@
       <c r="D398">
         <v>2019</v>
       </c>
-      <c r="E398">
+      <c r="E398" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F398">
         <v>54751510087.7803</v>
       </c>
     </row>
@@ -9534,7 +10737,10 @@
       <c r="D399">
         <v>2020</v>
       </c>
-      <c r="E399">
+      <c r="E399" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F399">
         <v>56846622904.4391</v>
       </c>
     </row>
@@ -9557,7 +10763,10 @@
       <c r="D400">
         <v>2021</v>
       </c>
-      <c r="E400">
+      <c r="E400" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F400">
         <v>66445256585.3671</v>
       </c>
     </row>
@@ -9580,7 +10789,10 @@
       <c r="D401">
         <v>2019</v>
       </c>
-      <c r="E401">
+      <c r="E401" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F401">
         <v>69825641851.0117</v>
       </c>
     </row>
@@ -9603,7 +10815,10 @@
       <c r="D402">
         <v>2020</v>
       </c>
-      <c r="E402">
+      <c r="E402" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F402">
         <v>73992591285.3029</v>
       </c>
     </row>
@@ -9626,7 +10841,10 @@
       <c r="D403">
         <v>2021</v>
       </c>
-      <c r="E403">
+      <c r="E403" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F403">
         <v>85506243833.7816</v>
       </c>
     </row>
@@ -9649,7 +10867,10 @@
       <c r="D404">
         <v>2019</v>
       </c>
-      <c r="E404">
+      <c r="E404" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F404">
         <v>34343961072.8235</v>
       </c>
     </row>
@@ -9672,7 +10893,10 @@
       <c r="D405">
         <v>2020</v>
       </c>
-      <c r="E405">
+      <c r="E405" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F405">
         <v>34601740323.3386</v>
       </c>
     </row>
@@ -9695,7 +10919,10 @@
       <c r="D406">
         <v>2021</v>
       </c>
-      <c r="E406">
+      <c r="E406" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F406">
         <v>39853501579.8211</v>
       </c>
     </row>
@@ -9718,7 +10945,10 @@
       <c r="D407">
         <v>2019</v>
       </c>
-      <c r="E407">
+      <c r="E407" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F407">
         <v>55204758069.5124</v>
       </c>
     </row>
@@ -9741,7 +10971,10 @@
       <c r="D408">
         <v>2020</v>
       </c>
-      <c r="E408">
+      <c r="E408" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F408">
         <v>25459563655.4806</v>
       </c>
     </row>
@@ -9764,7 +10997,10 @@
       <c r="D409">
         <v>2021</v>
       </c>
-      <c r="E409">
+      <c r="E409" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F409">
         <v>30123914808.5691</v>
       </c>
     </row>
@@ -9787,7 +11023,10 @@
       <c r="D410">
         <v>2019</v>
       </c>
-      <c r="E410">
+      <c r="E410" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F410">
         <v>128919944681.869</v>
       </c>
     </row>
@@ -9810,7 +11049,10 @@
       <c r="D411">
         <v>2020</v>
       </c>
-      <c r="E411">
+      <c r="E411" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F411">
         <v>121348138320.276</v>
       </c>
     </row>
@@ -9833,7 +11075,10 @@
       <c r="D412">
         <v>2021</v>
       </c>
-      <c r="E412">
+      <c r="E412" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F412">
         <v>142866329198.42</v>
       </c>
     </row>
@@ -9856,7 +11101,10 @@
       <c r="D413">
         <v>2019</v>
       </c>
-      <c r="E413">
+      <c r="E413" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F413">
         <v>7383745662.15157</v>
       </c>
     </row>
@@ -9879,7 +11127,10 @@
       <c r="D414">
         <v>2020</v>
       </c>
-      <c r="E414">
+      <c r="E414" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F414">
         <v>6739691604.79726</v>
       </c>
     </row>
@@ -9902,7 +11153,10 @@
       <c r="D415">
         <v>2021</v>
       </c>
-      <c r="E415">
+      <c r="E415" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F415">
         <v>8596096984.033119</v>
       </c>
     </row>
@@ -9925,7 +11179,10 @@
       <c r="D416">
         <v>2019</v>
       </c>
-      <c r="E416">
+      <c r="E416" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F416">
         <v>11971345002.7757</v>
       </c>
     </row>
@@ -9948,7 +11205,10 @@
       <c r="D417">
         <v>2020</v>
       </c>
-      <c r="E417">
+      <c r="E417" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F417">
         <v>11859730543.5525</v>
       </c>
     </row>
@@ -9971,7 +11231,10 @@
       <c r="D418">
         <v>2021</v>
       </c>
-      <c r="E418">
+      <c r="E418" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F418">
         <v>13679221333.2052</v>
       </c>
     </row>
@@ -9994,7 +11257,10 @@
       <c r="D419">
         <v>2019</v>
       </c>
-      <c r="E419">
+      <c r="E419" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F419">
         <v>14104664514.8681</v>
       </c>
     </row>
@@ -10017,7 +11283,10 @@
       <c r="D420">
         <v>2020</v>
       </c>
-      <c r="E420">
+      <c r="E420" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F420">
         <v>13051441059.3338</v>
       </c>
     </row>
@@ -10040,7 +11309,10 @@
       <c r="D421">
         <v>2021</v>
       </c>
-      <c r="E421">
+      <c r="E421" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F421">
         <v>14472603322.5571</v>
       </c>
     </row>
@@ -10063,7 +11335,10 @@
       <c r="D422">
         <v>2019</v>
       </c>
-      <c r="E422">
+      <c r="E422" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F422">
         <v>5609400721.62268</v>
       </c>
     </row>
@@ -10086,7 +11361,10 @@
       <c r="D423">
         <v>2020</v>
       </c>
-      <c r="E423">
+      <c r="E423" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F423">
         <v>3746321936.37729</v>
       </c>
     </row>
@@ -10109,7 +11387,10 @@
       <c r="D424">
         <v>2021</v>
       </c>
-      <c r="E424">
+      <c r="E424" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F424">
         <v>5405576235.79462</v>
       </c>
     </row>
@@ -10132,7 +11413,10 @@
       <c r="D425">
         <v>2019</v>
       </c>
-      <c r="E425">
+      <c r="E425" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F425">
         <v>3472047486173.32</v>
       </c>
     </row>
@@ -10155,7 +11439,10 @@
       <c r="D426">
         <v>2020</v>
       </c>
-      <c r="E426">
+      <c r="E426" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F426">
         <v>3115703083275.4</v>
       </c>
     </row>
@@ -10178,7 +11465,10 @@
       <c r="D427">
         <v>2021</v>
       </c>
-      <c r="E427">
+      <c r="E427" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F427">
         <v>3679844251878.64</v>
       </c>
     </row>
@@ -10201,7 +11491,10 @@
       <c r="D428">
         <v>2019</v>
       </c>
-      <c r="E428">
+      <c r="E428" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F428">
         <v>1269011767478.56</v>
       </c>
     </row>
@@ -10224,7 +11517,10 @@
       <c r="D429">
         <v>2020</v>
       </c>
-      <c r="E429">
+      <c r="E429" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F429">
         <v>1090515389749.41</v>
       </c>
     </row>
@@ -10247,7 +11543,10 @@
       <c r="D430">
         <v>2021</v>
       </c>
-      <c r="E430">
+      <c r="E430" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F430">
         <v>1272839334119.3</v>
       </c>
     </row>
@@ -10270,7 +11569,10 @@
       <c r="D431">
         <v>2019</v>
       </c>
-      <c r="E431">
+      <c r="E431" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F431">
         <v>232092300</v>
       </c>
     </row>
@@ -10293,7 +11595,10 @@
       <c r="D432">
         <v>2020</v>
       </c>
-      <c r="E432">
+      <c r="E432" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F432">
         <v>241722400</v>
       </c>
     </row>
@@ -10316,7 +11621,10 @@
       <c r="D433">
         <v>2021</v>
       </c>
-      <c r="E433">
+      <c r="E433" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F433">
         <v>259538700</v>
       </c>
     </row>
@@ -10339,7 +11647,10 @@
       <c r="D434">
         <v>2019</v>
       </c>
-      <c r="E434">
+      <c r="E434" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F434">
         <v>31590337549585.4</v>
       </c>
     </row>
@@ -10362,7 +11673,10 @@
       <c r="D435">
         <v>2020</v>
       </c>
-      <c r="E435">
+      <c r="E435" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F435">
         <v>30468597959817.3</v>
       </c>
     </row>
@@ -10385,7 +11699,10 @@
       <c r="D436">
         <v>2021</v>
       </c>
-      <c r="E436">
+      <c r="E436" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F436">
         <v>35845142448794.2</v>
       </c>
     </row>
@@ -10408,7 +11725,10 @@
       <c r="D437">
         <v>2019</v>
       </c>
-      <c r="E437">
+      <c r="E437" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F437">
         <v>12606338448.547</v>
       </c>
     </row>
@@ -10431,7 +11751,10 @@
       <c r="D438">
         <v>2020</v>
       </c>
-      <c r="E438">
+      <c r="E438" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F438">
         <v>12363580534.6811</v>
       </c>
     </row>
@@ -10454,7 +11777,10 @@
       <c r="D439">
         <v>2021</v>
       </c>
-      <c r="E439">
+      <c r="E439" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F439">
         <v>13825049831.7959</v>
       </c>
     </row>
@@ -10477,7 +11803,10 @@
       <c r="D440">
         <v>2019</v>
       </c>
-      <c r="E440">
+      <c r="E440" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F440">
         <v>17280251193.9527</v>
       </c>
     </row>
@@ -10500,7 +11829,10 @@
       <c r="D441">
         <v>2020</v>
       </c>
-      <c r="E441">
+      <c r="E441" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F441">
         <v>17465392915.9153</v>
       </c>
     </row>
@@ -10523,7 +11855,10 @@
       <c r="D442">
         <v>2021</v>
       </c>
-      <c r="E442">
+      <c r="E442" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F442">
         <v>19140461605.8227</v>
       </c>
     </row>
@@ -10546,7 +11881,10 @@
       <c r="D443">
         <v>2019</v>
       </c>
-      <c r="E443">
+      <c r="E443" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F443">
         <v>15725847979.4022</v>
       </c>
     </row>
@@ -10569,7 +11907,10 @@
       <c r="D444">
         <v>2020</v>
       </c>
-      <c r="E444">
+      <c r="E444" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F444">
         <v>14933066818.9606</v>
       </c>
     </row>
@@ -10592,7 +11933,10 @@
       <c r="D445">
         <v>2021</v>
       </c>
-      <c r="E445">
+      <c r="E445" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F445">
         <v>17364044943.8202</v>
       </c>
     </row>
@@ -10615,7 +11959,10 @@
       <c r="D446">
         <v>2019</v>
       </c>
-      <c r="E446">
+      <c r="E446" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F446">
         <v>68697759361.231</v>
       </c>
     </row>
@@ -10638,7 +11985,10 @@
       <c r="D447">
         <v>2020</v>
       </c>
-      <c r="E447">
+      <c r="E447" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F447">
         <v>78930257227.09081</v>
       </c>
     </row>
@@ -10661,7 +12011,10 @@
       <c r="D448">
         <v>2021</v>
       </c>
-      <c r="E448">
+      <c r="E448" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F448">
         <v>65091751273.2879</v>
       </c>
     </row>
@@ -10684,7 +12037,10 @@
       <c r="D449">
         <v>2019</v>
       </c>
-      <c r="E449">
+      <c r="E449" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F449">
         <v>1393571952376.11</v>
       </c>
     </row>
@@ -10707,7 +12063,10 @@
       <c r="D450">
         <v>2020</v>
       </c>
-      <c r="E450">
+      <c r="E450" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F450">
         <v>1274090477533.63</v>
       </c>
     </row>
@@ -10730,7 +12089,10 @@
       <c r="D451">
         <v>2021</v>
       </c>
-      <c r="E451">
+      <c r="E451" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F451">
         <v>1493751699435.47</v>
       </c>
     </row>
@@ -10753,7 +12115,10 @@
       <c r="D452">
         <v>2019</v>
       </c>
-      <c r="E452">
+      <c r="E452" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F452">
         <v>5542053845.29274</v>
       </c>
     </row>
@@ -10776,7 +12141,10 @@
       <c r="D453">
         <v>2020</v>
       </c>
-      <c r="E453">
+      <c r="E453" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F453">
         <v>4769860740.74074</v>
       </c>
     </row>
@@ -10799,7 +12167,10 @@
       <c r="D454">
         <v>2021</v>
       </c>
-      <c r="E454">
+      <c r="E454" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F454">
         <v>5861268038.7982</v>
       </c>
     </row>
@@ -10822,7 +12193,10 @@
       <c r="D455">
         <v>2019</v>
       </c>
-      <c r="E455">
+      <c r="E455" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F455">
         <v>14206359006.8095</v>
       </c>
     </row>
@@ -10845,7 +12219,10 @@
       <c r="D456">
         <v>2020</v>
       </c>
-      <c r="E456">
+      <c r="E456" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F456">
         <v>13312981594.573</v>
       </c>
     </row>
@@ -10868,7 +12245,10 @@
       <c r="D457">
         <v>2021</v>
       </c>
-      <c r="E457">
+      <c r="E457" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F457">
         <v>15286441818.1437</v>
       </c>
     </row>
@@ -10891,7 +12271,10 @@
       <c r="D458">
         <v>2019</v>
       </c>
-      <c r="E458">
+      <c r="E458" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F458">
         <v>1182000000</v>
       </c>
     </row>
@@ -10914,7 +12297,10 @@
       <c r="D459">
         <v>2019</v>
       </c>
-      <c r="E459">
+      <c r="E459" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F459">
         <v>15390039241.674</v>
       </c>
     </row>
@@ -10937,7 +12323,10 @@
       <c r="D460">
         <v>2020</v>
       </c>
-      <c r="E460">
+      <c r="E460" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F460">
         <v>14028811071.7628</v>
       </c>
     </row>
@@ -10960,7 +12349,10 @@
       <c r="D461">
         <v>2021</v>
       </c>
-      <c r="E461">
+      <c r="E461" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F461">
         <v>15776758632.8573</v>
       </c>
     </row>
@@ -10983,7 +12375,10 @@
       <c r="D462">
         <v>2019</v>
       </c>
-      <c r="E462">
+      <c r="E462" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F462">
         <v>8066126312.31807</v>
       </c>
     </row>
@@ -11006,7 +12401,10 @@
       <c r="D463">
         <v>2020</v>
       </c>
-      <c r="E463">
+      <c r="E463" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F463">
         <v>8405491201.74674</v>
       </c>
     </row>
@@ -11029,7 +12427,10 @@
       <c r="D464">
         <v>2021</v>
       </c>
-      <c r="E464">
+      <c r="E464" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F464">
         <v>9996249658.23982</v>
       </c>
     </row>
@@ -11052,7 +12453,10 @@
       <c r="D465">
         <v>2019</v>
       </c>
-      <c r="E465">
+      <c r="E465" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F465">
         <v>14436353897.9802</v>
       </c>
     </row>
@@ -11075,7 +12479,10 @@
       <c r="D466">
         <v>2020</v>
       </c>
-      <c r="E466">
+      <c r="E466" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F466">
         <v>11401050654.5624</v>
       </c>
     </row>
@@ -11098,7 +12505,10 @@
       <c r="D467">
         <v>2021</v>
       </c>
-      <c r="E467">
+      <c r="E467" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F467">
         <v>11529042672.3528</v>
       </c>
     </row>
@@ -11121,7 +12531,10 @@
       <c r="D468">
         <v>2019</v>
       </c>
-      <c r="E468">
+      <c r="E468" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F468">
         <v>11025371147.1876</v>
       </c>
     </row>
@@ -11144,7 +12557,10 @@
       <c r="D469">
         <v>2020</v>
       </c>
-      <c r="E469">
+      <c r="E469" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F469">
         <v>12182348212.7073</v>
       </c>
     </row>
@@ -11167,7 +12583,10 @@
       <c r="D470">
         <v>2021</v>
       </c>
-      <c r="E470">
+      <c r="E470" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F470">
         <v>12626717491.8941</v>
       </c>
     </row>
@@ -11190,7 +12609,10 @@
       <c r="D471">
         <v>2019</v>
       </c>
-      <c r="E471">
+      <c r="E471" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F471">
         <v>365175135787.568</v>
       </c>
     </row>
@@ -11213,7 +12635,10 @@
       <c r="D472">
         <v>2020</v>
       </c>
-      <c r="E472">
+      <c r="E472" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F472">
         <v>337337932675.152</v>
       </c>
     </row>
@@ -11236,7 +12661,10 @@
       <c r="D473">
         <v>2021</v>
       </c>
-      <c r="E473">
+      <c r="E473" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F473">
         <v>372980957208.023</v>
       </c>
     </row>
@@ -11259,7 +12687,10 @@
       <c r="D474">
         <v>2019</v>
       </c>
-      <c r="E474">
+      <c r="E474" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F474">
         <v>23130414629482.3</v>
       </c>
     </row>
@@ -11282,7 +12713,10 @@
       <c r="D475">
         <v>2020</v>
       </c>
-      <c r="E475">
+      <c r="E475" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F475">
         <v>22712784167568.4</v>
       </c>
     </row>
@@ -11305,7 +12739,10 @@
       <c r="D476">
         <v>2021</v>
       </c>
-      <c r="E476">
+      <c r="E476" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F476">
         <v>25310703498717.4</v>
       </c>
     </row>
@@ -11328,7 +12765,10 @@
       <c r="D477">
         <v>2019</v>
       </c>
-      <c r="E477">
+      <c r="E477" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F477">
         <v>12541928104.6242</v>
       </c>
     </row>
@@ -11351,7 +12791,10 @@
       <c r="D478">
         <v>2020</v>
       </c>
-      <c r="E478">
+      <c r="E478" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F478">
         <v>10581585630.0773</v>
       </c>
     </row>
@@ -11374,7 +12817,10 @@
       <c r="D479">
         <v>2021</v>
       </c>
-      <c r="E479">
+      <c r="E479" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F479">
         <v>12310595843.9353</v>
       </c>
     </row>
@@ -11397,7 +12843,10 @@
       <c r="D480">
         <v>2019</v>
       </c>
-      <c r="E480">
+      <c r="E480" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F480">
         <v>9438130987.37298</v>
       </c>
     </row>
@@ -11420,7 +12869,10 @@
       <c r="D481">
         <v>2020</v>
       </c>
-      <c r="E481">
+      <c r="E481" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F481">
         <v>9435529927.247101</v>
       </c>
     </row>
@@ -11443,7 +12895,10 @@
       <c r="D482">
         <v>2021</v>
       </c>
-      <c r="E482">
+      <c r="E482" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F482">
         <v>10071351960.0477</v>
       </c>
     </row>
@@ -11466,7 +12921,10 @@
       <c r="D483">
         <v>2019</v>
       </c>
-      <c r="E483">
+      <c r="E483" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F483">
         <v>12916455161.1081</v>
       </c>
     </row>
@@ -11489,7 +12947,10 @@
       <c r="D484">
         <v>2020</v>
       </c>
-      <c r="E484">
+      <c r="E484" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F484">
         <v>13744174689.9681</v>
       </c>
     </row>
@@ -11512,7 +12973,10 @@
       <c r="D485">
         <v>2021</v>
       </c>
-      <c r="E485">
+      <c r="E485" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F485">
         <v>14915001426.9724</v>
       </c>
     </row>
@@ -11535,7 +12999,10 @@
       <c r="D486">
         <v>2019</v>
       </c>
-      <c r="E486">
+      <c r="E486" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F486">
         <v>448120015209.524</v>
       </c>
     </row>
@@ -11558,7 +13025,10 @@
       <c r="D487">
         <v>2020</v>
       </c>
-      <c r="E487">
+      <c r="E487" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F487">
         <v>432198936002.177</v>
       </c>
     </row>
@@ -11581,7 +13051,10 @@
       <c r="D488">
         <v>2021</v>
       </c>
-      <c r="E488">
+      <c r="E488" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F488">
         <v>440833583992.485</v>
       </c>
     </row>
@@ -11604,7 +13077,10 @@
       <c r="D489">
         <v>2019</v>
       </c>
-      <c r="E489">
+      <c r="E489" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F489">
         <v>12596636042.2321</v>
       </c>
     </row>
@@ -11627,7 +13103,10 @@
       <c r="D490">
         <v>2020</v>
       </c>
-      <c r="E490">
+      <c r="E490" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F490">
         <v>12586970511.4131</v>
       </c>
     </row>
@@ -11650,7 +13129,10 @@
       <c r="D491">
         <v>2021</v>
       </c>
-      <c r="E491">
+      <c r="E491" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F491">
         <v>14013022092.0645</v>
       </c>
     </row>
@@ -11673,7 +13155,10 @@
       <c r="D492">
         <v>2019</v>
       </c>
-      <c r="E492">
+      <c r="E492" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F492">
         <v>910194347568.626</v>
       </c>
     </row>
@@ -11696,7 +13181,10 @@
       <c r="D493">
         <v>2020</v>
       </c>
-      <c r="E493">
+      <c r="E493" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F493">
         <v>909793466661.481</v>
       </c>
     </row>
@@ -11719,7 +13207,10 @@
       <c r="D494">
         <v>2021</v>
       </c>
-      <c r="E494">
+      <c r="E494" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F494">
         <v>1012846760976.73</v>
       </c>
     </row>
@@ -11742,7 +13233,10 @@
       <c r="D495">
         <v>2019</v>
       </c>
-      <c r="E495">
+      <c r="E495" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F495">
         <v>404941363636.364</v>
       </c>
     </row>
@@ -11765,7 +13259,10 @@
       <c r="D496">
         <v>2020</v>
       </c>
-      <c r="E496">
+      <c r="E496" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F496">
         <v>362198318435.26</v>
       </c>
     </row>
@@ -11788,7 +13285,10 @@
       <c r="D497">
         <v>2021</v>
       </c>
-      <c r="E497">
+      <c r="E497" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F497">
         <v>482174854481.956</v>
       </c>
     </row>
@@ -11811,7 +13311,10 @@
       <c r="D498">
         <v>2019</v>
       </c>
-      <c r="E498">
+      <c r="E498" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F498">
         <v>34186190995.9565</v>
       </c>
     </row>
@@ -11834,7 +13337,10 @@
       <c r="D499">
         <v>2020</v>
       </c>
-      <c r="E499">
+      <c r="E499" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F499">
         <v>33433670511.9364</v>
       </c>
     </row>
@@ -11857,7 +13363,10 @@
       <c r="D500">
         <v>2021</v>
       </c>
-      <c r="E500">
+      <c r="E500" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F500">
         <v>36288830373.4106</v>
       </c>
     </row>
@@ -11880,7 +13389,10 @@
       <c r="D501">
         <v>2019</v>
       </c>
-      <c r="E501">
+      <c r="E501" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F501">
         <v>118724073.809183</v>
       </c>
     </row>
@@ -11903,7 +13415,10 @@
       <c r="D502">
         <v>2020</v>
       </c>
-      <c r="E502">
+      <c r="E502" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F502">
         <v>114626625.553023</v>
       </c>
     </row>
@@ -11926,7 +13441,10 @@
       <c r="D503">
         <v>2021</v>
       </c>
-      <c r="E503">
+      <c r="E503" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F503">
         <v>133218896.932607</v>
       </c>
     </row>
@@ -11949,7 +13467,10 @@
       <c r="D504">
         <v>2019</v>
       </c>
-      <c r="E504">
+      <c r="E504" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F504">
         <v>213434571357.984</v>
       </c>
     </row>
@@ -11972,7 +13493,10 @@
       <c r="D505">
         <v>2020</v>
       </c>
-      <c r="E505">
+      <c r="E505" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F505">
         <v>211734532308.013</v>
       </c>
     </row>
@@ -11995,7 +13519,10 @@
       <c r="D506">
         <v>2021</v>
       </c>
-      <c r="E506">
+      <c r="E506" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F506">
         <v>249885687029.634</v>
       </c>
     </row>
@@ -12018,7 +13545,10 @@
       <c r="D507">
         <v>2019</v>
       </c>
-      <c r="E507">
+      <c r="E507" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F507">
         <v>53878590811090.2</v>
       </c>
     </row>
@@ -12041,7 +13571,10 @@
       <c r="D508">
         <v>2020</v>
       </c>
-      <c r="E508">
+      <c r="E508" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F508">
         <v>52517052000302.5</v>
       </c>
     </row>
@@ -12064,7 +13597,10 @@
       <c r="D509">
         <v>2021</v>
       </c>
-      <c r="E509">
+      <c r="E509" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F509">
         <v>58268353654249.4</v>
       </c>
     </row>
@@ -12087,7 +13623,10 @@
       <c r="D510">
         <v>2019</v>
       </c>
-      <c r="E510">
+      <c r="E510" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F510">
         <v>88060858257.4772</v>
       </c>
     </row>
@@ -12110,7 +13649,10 @@
       <c r="D511">
         <v>2020</v>
       </c>
-      <c r="E511">
+      <c r="E511" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F511">
         <v>75909397659.29781</v>
       </c>
     </row>
@@ -12133,7 +13675,10 @@
       <c r="D512">
         <v>2021</v>
       </c>
-      <c r="E512">
+      <c r="E512" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F512">
         <v>88191977373.21201</v>
       </c>
     </row>
@@ -12156,7 +13701,10 @@
       <c r="D513">
         <v>2019</v>
       </c>
-      <c r="E513">
+      <c r="E513" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F513">
         <v>433363259897.155</v>
       </c>
     </row>
@@ -12179,7 +13727,10 @@
       <c r="D514">
         <v>2020</v>
       </c>
-      <c r="E514">
+      <c r="E514" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F514">
         <v>378315467558.569</v>
       </c>
     </row>
@@ -12202,7 +13753,10 @@
       <c r="D515">
         <v>2021</v>
       </c>
-      <c r="E515">
+      <c r="E515" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F515">
         <v>453948317534.684</v>
       </c>
     </row>
@@ -12225,7 +13779,10 @@
       <c r="D516">
         <v>2019</v>
       </c>
-      <c r="E516">
+      <c r="E516" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F516">
         <v>320909489229.723</v>
       </c>
     </row>
@@ -12248,7 +13805,10 @@
       <c r="D517">
         <v>2020</v>
       </c>
-      <c r="E517">
+      <c r="E517" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F517">
         <v>300425666773.043</v>
       </c>
     </row>
@@ -12271,7 +13831,10 @@
       <c r="D518">
         <v>2021</v>
       </c>
-      <c r="E518">
+      <c r="E518" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F518">
         <v>348262544719.178</v>
       </c>
     </row>
@@ -12294,7 +13857,10 @@
       <c r="D519">
         <v>2019</v>
       </c>
-      <c r="E519">
+      <c r="E519" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F519">
         <v>66984400000</v>
       </c>
     </row>
@@ -12317,7 +13883,10 @@
       <c r="D520">
         <v>2020</v>
       </c>
-      <c r="E520">
+      <c r="E520" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F520">
         <v>53977000000</v>
       </c>
     </row>
@@ -12340,7 +13909,10 @@
       <c r="D521">
         <v>2021</v>
       </c>
-      <c r="E521">
+      <c r="E521" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F521">
         <v>63605100000</v>
       </c>
     </row>
@@ -12363,7 +13935,10 @@
       <c r="D522">
         <v>2019</v>
       </c>
-      <c r="E522">
+      <c r="E522" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F522">
         <v>228323495040.901</v>
       </c>
     </row>
@@ -12386,7 +13961,10 @@
       <c r="D523">
         <v>2020</v>
       </c>
-      <c r="E523">
+      <c r="E523" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F523">
         <v>201705055938.653</v>
       </c>
     </row>
@@ -12409,7 +13987,10 @@
       <c r="D524">
         <v>2021</v>
       </c>
-      <c r="E524">
+      <c r="E524" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F524">
         <v>223249497500.387</v>
       </c>
     </row>
@@ -12432,7 +14013,10 @@
       <c r="D525">
         <v>2019</v>
       </c>
-      <c r="E525">
+      <c r="E525" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F525">
         <v>376823278560.849</v>
       </c>
     </row>
@@ -12455,7 +14039,10 @@
       <c r="D526">
         <v>2020</v>
       </c>
-      <c r="E526">
+      <c r="E526" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F526">
         <v>361751116292.541</v>
       </c>
     </row>
@@ -12478,7 +14065,10 @@
       <c r="D527">
         <v>2021</v>
       </c>
-      <c r="E527">
+      <c r="E527" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F527">
         <v>394086401171.168</v>
       </c>
     </row>
@@ -12501,7 +14091,10 @@
       <c r="D528">
         <v>2019</v>
       </c>
-      <c r="E528">
+      <c r="E528" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F528">
         <v>278900000</v>
       </c>
     </row>
@@ -12524,7 +14117,10 @@
       <c r="D529">
         <v>2020</v>
       </c>
-      <c r="E529">
+      <c r="E529" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F529">
         <v>251900000</v>
       </c>
     </row>
@@ -12547,7 +14143,10 @@
       <c r="D530">
         <v>2021</v>
       </c>
-      <c r="E530">
+      <c r="E530" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F530">
         <v>217800000</v>
       </c>
     </row>
@@ -12570,7 +14169,10 @@
       <c r="D531">
         <v>2019</v>
       </c>
-      <c r="E531">
+      <c r="E531" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F531">
         <v>24751344560.8856</v>
       </c>
     </row>
@@ -12593,7 +14195,10 @@
       <c r="D532">
         <v>2020</v>
       </c>
-      <c r="E532">
+      <c r="E532" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F532">
         <v>23848265895.9538</v>
       </c>
     </row>
@@ -12616,7 +14221,10 @@
       <c r="D533">
         <v>2021</v>
       </c>
-      <c r="E533">
+      <c r="E533" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F533">
         <v>26594305745.554</v>
       </c>
     </row>
@@ -12639,7 +14247,10 @@
       <c r="D534">
         <v>2019</v>
       </c>
-      <c r="E534">
+      <c r="E534" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F534">
         <v>596054591863.312</v>
       </c>
     </row>
@@ -12662,7 +14273,10 @@
       <c r="D535">
         <v>2020</v>
       </c>
-      <c r="E535">
+      <c r="E535" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F535">
         <v>599449188399.108</v>
       </c>
     </row>
@@ -12685,7 +14299,10 @@
       <c r="D536">
         <v>2021</v>
       </c>
-      <c r="E536">
+      <c r="E536" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F536">
         <v>679444832854.295</v>
       </c>
     </row>
@@ -12708,7 +14325,10 @@
       <c r="D537">
         <v>2019</v>
       </c>
-      <c r="E537">
+      <c r="E537" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F537">
         <v>1401120806330.91</v>
       </c>
     </row>
@@ -12731,7 +14351,10 @@
       <c r="D538">
         <v>2020</v>
       </c>
-      <c r="E538">
+      <c r="E538" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F538">
         <v>1316350192560.25</v>
       </c>
     </row>
@@ -12754,7 +14377,10 @@
       <c r="D539">
         <v>2021</v>
       </c>
-      <c r="E539">
+      <c r="E539" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F539">
         <v>1434259111659.57</v>
       </c>
     </row>
@@ -12777,7 +14403,10 @@
       <c r="D540">
         <v>2019</v>
       </c>
-      <c r="E540">
+      <c r="E540" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F540">
         <v>105126400000</v>
       </c>
     </row>
@@ -12800,7 +14429,10 @@
       <c r="D541">
         <v>2020</v>
       </c>
-      <c r="E541">
+      <c r="E541" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F541">
         <v>103020300000</v>
       </c>
     </row>
@@ -12823,7 +14455,10 @@
       <c r="D542">
         <v>2021</v>
       </c>
-      <c r="E542">
+      <c r="E542" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F542">
         <v>106525700000</v>
       </c>
     </row>
@@ -12846,7 +14481,10 @@
       <c r="D543">
         <v>2019</v>
       </c>
-      <c r="E543">
+      <c r="E543" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F543">
         <v>239986922638.902</v>
       </c>
     </row>
@@ -12869,7 +14507,10 @@
       <c r="D544">
         <v>2020</v>
       </c>
-      <c r="E544">
+      <c r="E544" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F544">
         <v>229031860520.777</v>
       </c>
     </row>
@@ -12892,7 +14533,10 @@
       <c r="D545">
         <v>2021</v>
       </c>
-      <c r="E545">
+      <c r="E545" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F545">
         <v>253663144586.019</v>
       </c>
     </row>
@@ -12915,7 +14559,10 @@
       <c r="D546">
         <v>2019</v>
       </c>
-      <c r="E546">
+      <c r="E546" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F546">
         <v>37925338329.1494</v>
       </c>
     </row>
@@ -12938,7 +14585,10 @@
       <c r="D547">
         <v>2020</v>
       </c>
-      <c r="E547">
+      <c r="E547" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F547">
         <v>35432178068.1814</v>
       </c>
     </row>
@@ -12961,7 +14611,10 @@
       <c r="D548">
         <v>2021</v>
       </c>
-      <c r="E548">
+      <c r="E548" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F548">
         <v>39495431574.1782</v>
       </c>
     </row>
@@ -12984,7 +14637,10 @@
       <c r="D549">
         <v>2019</v>
       </c>
-      <c r="E549">
+      <c r="E549" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F549">
         <v>17133500000</v>
       </c>
     </row>
@@ -13007,7 +14663,10 @@
       <c r="D550">
         <v>2020</v>
       </c>
-      <c r="E550">
+      <c r="E550" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F550">
         <v>15531700000</v>
       </c>
     </row>
@@ -13030,7 +14689,10 @@
       <c r="D551">
         <v>2021</v>
       </c>
-      <c r="E551">
+      <c r="E551" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F551">
         <v>18036800000</v>
       </c>
     </row>
@@ -13053,7 +14715,10 @@
       <c r="D552">
         <v>2019</v>
       </c>
-      <c r="E552">
+      <c r="E552" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F552">
         <v>10736233419.3753</v>
       </c>
     </row>
@@ -13076,7 +14741,10 @@
       <c r="D553">
         <v>2020</v>
       </c>
-      <c r="E553">
+      <c r="E553" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F553">
         <v>9515995237.06002</v>
       </c>
     </row>
@@ -13099,7 +14767,10 @@
       <c r="D554">
         <v>2021</v>
       </c>
-      <c r="E554">
+      <c r="E554" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F554">
         <v>9481916212.126221</v>
       </c>
     </row>
@@ -13122,7 +14793,10 @@
       <c r="D555">
         <v>2019</v>
       </c>
-      <c r="E555">
+      <c r="E555" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F555">
         <v>50879345159852</v>
       </c>
     </row>
@@ -13145,7 +14819,10 @@
       <c r="D556">
         <v>2020</v>
       </c>
-      <c r="E556">
+      <c r="E556" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F556">
         <v>49697795866801.5</v>
       </c>
     </row>
@@ -13168,7 +14845,10 @@
       <c r="D557">
         <v>2021</v>
       </c>
-      <c r="E557">
+      <c r="E557" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F557">
         <v>54972726099855.9</v>
       </c>
     </row>
@@ -13191,7 +14871,10 @@
       <c r="D558">
         <v>2019</v>
       </c>
-      <c r="E558">
+      <c r="E558" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F558">
         <v>6001384759.57628</v>
       </c>
     </row>
@@ -13214,7 +14897,10 @@
       <c r="D559">
         <v>2020</v>
       </c>
-      <c r="E559">
+      <c r="E559" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F559">
         <v>5709421968.74051</v>
       </c>
     </row>
@@ -13237,7 +14923,10 @@
       <c r="D560">
         <v>2021</v>
       </c>
-      <c r="E560">
+      <c r="E560" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F560">
         <v>6054676735.37523</v>
       </c>
     </row>
@@ -13260,7 +14949,10 @@
       <c r="D561">
         <v>2019</v>
       </c>
-      <c r="E561">
+      <c r="E561" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F561">
         <v>175837550989.011</v>
       </c>
     </row>
@@ -13283,7 +14975,10 @@
       <c r="D562">
         <v>2020</v>
       </c>
-      <c r="E562">
+      <c r="E562" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F562">
         <v>144411363345.27</v>
       </c>
     </row>
@@ -13306,7 +15001,10 @@
       <c r="D563">
         <v>2021</v>
       </c>
-      <c r="E563">
+      <c r="E563" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F563">
         <v>179677211793.938</v>
       </c>
     </row>
@@ -13329,7 +15027,10 @@
       <c r="D564">
         <v>2019</v>
       </c>
-      <c r="E564">
+      <c r="E564" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F564">
         <v>251019278416.197</v>
       </c>
     </row>
@@ -13352,7 +15053,10 @@
       <c r="D565">
         <v>2020</v>
       </c>
-      <c r="E565">
+      <c r="E565" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F565">
         <v>251362040527.804</v>
       </c>
     </row>
@@ -13375,7 +15079,10 @@
       <c r="D566">
         <v>2021</v>
       </c>
-      <c r="E566">
+      <c r="E566" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F566">
         <v>284087563695.798</v>
       </c>
     </row>
@@ -13398,7 +15105,10 @@
       <c r="D567">
         <v>2019</v>
       </c>
-      <c r="E567">
+      <c r="E567" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F567">
         <v>1693113904262.89</v>
       </c>
     </row>
@@ -13421,7 +15131,10 @@
       <c r="D568">
         <v>2020</v>
       </c>
-      <c r="E568">
+      <c r="E568" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F568">
         <v>1489362488439.76</v>
       </c>
     </row>
@@ -13444,7 +15157,10 @@
       <c r="D569">
         <v>2021</v>
       </c>
-      <c r="E569">
+      <c r="E569" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F569">
         <v>1778782625793.74</v>
       </c>
     </row>
@@ -13467,7 +15183,10 @@
       <c r="D570">
         <v>2019</v>
       </c>
-      <c r="E570">
+      <c r="E570" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F570">
         <v>10356327149.4262</v>
       </c>
     </row>
@@ -13490,7 +15209,10 @@
       <c r="D571">
         <v>2020</v>
       </c>
-      <c r="E571">
+      <c r="E571" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F571">
         <v>10184345442.1708</v>
       </c>
     </row>
@@ -13513,7 +15235,10 @@
       <c r="D572">
         <v>2021</v>
       </c>
-      <c r="E572">
+      <c r="E572" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F572">
         <v>11070356519.4804</v>
       </c>
     </row>
@@ -13536,7 +15261,10 @@
       <c r="D573">
         <v>2019</v>
       </c>
-      <c r="E573">
+      <c r="E573" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F573">
         <v>3653950915835.84</v>
       </c>
     </row>
@@ -13559,7 +15287,10 @@
       <c r="D574">
         <v>2020</v>
       </c>
-      <c r="E574">
+      <c r="E574" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F574">
         <v>3487013484521.62</v>
       </c>
     </row>
@@ -13582,7 +15313,10 @@
       <c r="D575">
         <v>2021</v>
       </c>
-      <c r="E575">
+      <c r="E575" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F575">
         <v>4088770638066.94</v>
       </c>
     </row>
@@ -13605,7 +15339,10 @@
       <c r="D576">
         <v>2019</v>
       </c>
-      <c r="E576">
+      <c r="E576" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F576">
         <v>803616264791.024</v>
       </c>
     </row>
@@ -13628,7 +15365,10 @@
       <c r="D577">
         <v>2020</v>
       </c>
-      <c r="E577">
+      <c r="E577" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F577">
         <v>703367841222.5551</v>
       </c>
     </row>
@@ -13651,7 +15391,10 @@
       <c r="D578">
         <v>2021</v>
       </c>
-      <c r="E578">
+      <c r="E578" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F578">
         <v>833541236569.3149</v>
       </c>
     </row>
@@ -13674,7 +15417,10 @@
       <c r="D579">
         <v>2019</v>
       </c>
-      <c r="E579">
+      <c r="E579" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F579">
         <v>32338079165.2893</v>
       </c>
     </row>
@@ -13697,7 +15443,10 @@
       <c r="D580">
         <v>2020</v>
       </c>
-      <c r="E580">
+      <c r="E580" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F580">
         <v>27034593750</v>
       </c>
     </row>
@@ -13720,7 +15469,10 @@
       <c r="D581">
         <v>2021</v>
       </c>
-      <c r="E581">
+      <c r="E581" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F581">
         <v>34326058557.4418</v>
       </c>
     </row>
@@ -13743,7 +15495,10 @@
       <c r="D582">
         <v>2019</v>
       </c>
-      <c r="E582">
+      <c r="E582" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F582">
         <v>23398811423.578</v>
       </c>
     </row>
@@ -13766,7 +15521,10 @@
       <c r="D583">
         <v>2020</v>
       </c>
-      <c r="E583">
+      <c r="E583" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F583">
         <v>24493157583.2282</v>
       </c>
     </row>
@@ -13789,7 +15547,10 @@
       <c r="D584">
         <v>2021</v>
       </c>
-      <c r="E584">
+      <c r="E584" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F584">
         <v>27625388352.1688</v>
       </c>
     </row>
@@ -13812,7 +15573,10 @@
       <c r="D585">
         <v>2019</v>
       </c>
-      <c r="E585">
+      <c r="E585" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F585">
         <v>375472731271.075</v>
       </c>
     </row>
@@ -13835,7 +15599,10 @@
       <c r="D586">
         <v>2020</v>
       </c>
-      <c r="E586">
+      <c r="E586" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F586">
         <v>345295933898.674</v>
       </c>
     </row>
@@ -13858,7 +15625,10 @@
       <c r="D587">
         <v>2021</v>
       </c>
-      <c r="E587">
+      <c r="E587" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F587">
         <v>396986899888.351</v>
       </c>
     </row>
@@ -13881,7 +15651,10 @@
       <c r="D588">
         <v>2019</v>
       </c>
-      <c r="E588">
+      <c r="E588" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F588">
         <v>1619154819.29185</v>
       </c>
     </row>
@@ -13904,7 +15677,10 @@
       <c r="D589">
         <v>2020</v>
       </c>
-      <c r="E589">
+      <c r="E589" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F589">
         <v>1536148245.54995</v>
       </c>
     </row>
@@ -13927,7 +15703,10 @@
       <c r="D590">
         <v>2021</v>
       </c>
-      <c r="E590">
+      <c r="E590" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F590">
         <v>1631486531.92364</v>
       </c>
     </row>
@@ -13950,7 +15729,10 @@
       <c r="D591">
         <v>2019</v>
       </c>
-      <c r="E591">
+      <c r="E591" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F591">
         <v>4076578542.56207</v>
       </c>
     </row>
@@ -13973,7 +15755,10 @@
       <c r="D592">
         <v>2020</v>
       </c>
-      <c r="E592">
+      <c r="E592" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F592">
         <v>4063289449.58795</v>
       </c>
     </row>
@@ -13996,7 +15781,10 @@
       <c r="D593">
         <v>2021</v>
       </c>
-      <c r="E593">
+      <c r="E593" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F593">
         <v>4042237864.28942</v>
       </c>
     </row>
@@ -14019,7 +15807,10 @@
       <c r="D594">
         <v>2019</v>
       </c>
-      <c r="E594">
+      <c r="E594" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F594">
         <v>26881140000</v>
       </c>
     </row>
@@ -14042,7 +15833,10 @@
       <c r="D595">
         <v>2020</v>
       </c>
-      <c r="E595">
+      <c r="E595" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F595">
         <v>24563020000</v>
       </c>
     </row>
@@ -14065,7 +15859,10 @@
       <c r="D596">
         <v>2021</v>
       </c>
-      <c r="E596">
+      <c r="E596" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F596">
         <v>28736940000</v>
       </c>
     </row>
@@ -14088,7 +15885,10 @@
       <c r="D597">
         <v>2019</v>
       </c>
-      <c r="E597">
+      <c r="E597" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F597">
         <v>1616188702.34405</v>
       </c>
     </row>
@@ -14111,7 +15911,10 @@
       <c r="D598">
         <v>2020</v>
       </c>
-      <c r="E598">
+      <c r="E598" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F598">
         <v>1541204337.79164</v>
       </c>
     </row>
@@ -14134,7 +15937,10 @@
       <c r="D599">
         <v>2019</v>
       </c>
-      <c r="E599">
+      <c r="E599" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F599">
         <v>6485000000</v>
       </c>
     </row>
@@ -14157,7 +15963,10 @@
       <c r="D600">
         <v>2020</v>
       </c>
-      <c r="E600">
+      <c r="E600" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F600">
         <v>6883000000</v>
       </c>
     </row>
@@ -14180,7 +15989,10 @@
       <c r="D601">
         <v>2021</v>
       </c>
-      <c r="E601">
+      <c r="E601" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F601">
         <v>7628000011.46184</v>
       </c>
     </row>
@@ -14203,7 +16015,10 @@
       <c r="D602">
         <v>2019</v>
       </c>
-      <c r="E602">
+      <c r="E602" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F602">
         <v>51514222381.8428</v>
       </c>
     </row>
@@ -14226,7 +16041,10 @@
       <c r="D603">
         <v>2020</v>
       </c>
-      <c r="E603">
+      <c r="E603" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F603">
         <v>53356480453.8048</v>
       </c>
     </row>
@@ -14249,7 +16067,10 @@
       <c r="D604">
         <v>2021</v>
       </c>
-      <c r="E604">
+      <c r="E604" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F604">
         <v>63082047649.8528</v>
       </c>
     </row>
@@ -14272,7 +16093,10 @@
       <c r="D605">
         <v>2019</v>
       </c>
-      <c r="E605">
+      <c r="E605" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F605">
         <v>1801676535161.84</v>
       </c>
     </row>
@@ -14295,7 +16119,10 @@
       <c r="D606">
         <v>2020</v>
       </c>
-      <c r="E606">
+      <c r="E606" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F606">
         <v>1717749672914.59</v>
       </c>
     </row>
@@ -14318,7 +16145,10 @@
       <c r="D607">
         <v>2021</v>
       </c>
-      <c r="E607">
+      <c r="E607" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F607">
         <v>1927598981029.07</v>
       </c>
     </row>
@@ -14341,7 +16171,10 @@
       <c r="D608">
         <v>2019</v>
       </c>
-      <c r="E608">
+      <c r="E608" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F608">
         <v>1803362506027.61</v>
       </c>
     </row>
@@ -14364,7 +16197,10 @@
       <c r="D609">
         <v>2020</v>
       </c>
-      <c r="E609">
+      <c r="E609" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F609">
         <v>1719009523108.91</v>
       </c>
     </row>
@@ -14387,7 +16223,10 @@
       <c r="D610">
         <v>2021</v>
       </c>
-      <c r="E610">
+      <c r="E610" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F610">
         <v>1929052252557.39</v>
       </c>
     </row>
@@ -14410,7 +16249,10 @@
       <c r="D611">
         <v>2019</v>
       </c>
-      <c r="E611">
+      <c r="E611" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F611">
         <v>521527918170.426</v>
       </c>
     </row>
@@ -14433,7 +16275,10 @@
       <c r="D612">
         <v>2020</v>
       </c>
-      <c r="E612">
+      <c r="E612" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F612">
         <v>453728268085.958</v>
       </c>
     </row>
@@ -14456,7 +16301,10 @@
       <c r="D613">
         <v>2021</v>
       </c>
-      <c r="E613">
+      <c r="E613" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F613">
         <v>538706065410.038</v>
       </c>
     </row>
@@ -14479,7 +16327,10 @@
       <c r="D614">
         <v>2019</v>
       </c>
-      <c r="E614">
+      <c r="E614" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F614">
         <v>427425039.684339</v>
       </c>
     </row>
@@ -14502,7 +16353,10 @@
       <c r="D615">
         <v>2020</v>
       </c>
-      <c r="E615">
+      <c r="E615" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F615">
         <v>472551022.513384</v>
       </c>
     </row>
@@ -14525,7 +16379,10 @@
       <c r="D616">
         <v>2021</v>
       </c>
-      <c r="E616">
+      <c r="E616" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F616">
         <v>526653790.670814</v>
       </c>
     </row>
@@ -14548,7 +16405,10 @@
       <c r="D617">
         <v>2019</v>
       </c>
-      <c r="E617">
+      <c r="E617" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F617">
         <v>4016040575.08796</v>
       </c>
     </row>
@@ -14571,7 +16431,10 @@
       <c r="D618">
         <v>2020</v>
       </c>
-      <c r="E618">
+      <c r="E618" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F618">
         <v>2911807496.20227</v>
       </c>
     </row>
@@ -14594,7 +16457,10 @@
       <c r="D619">
         <v>2021</v>
       </c>
-      <c r="E619">
+      <c r="E619" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F619">
         <v>2984706243.65482</v>
       </c>
     </row>
@@ -14617,7 +16483,10 @@
       <c r="D620">
         <v>2019</v>
       </c>
-      <c r="E620">
+      <c r="E620" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F620">
         <v>105720354988.541</v>
       </c>
     </row>
@@ -14640,7 +16509,10 @@
       <c r="D621">
         <v>2020</v>
       </c>
-      <c r="E621">
+      <c r="E621" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F621">
         <v>106696828625.55</v>
       </c>
     </row>
@@ -14663,7 +16535,10 @@
       <c r="D622">
         <v>2021</v>
       </c>
-      <c r="E622">
+      <c r="E622" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F622">
         <v>116527101097.7</v>
       </c>
     </row>
@@ -14686,7 +16561,10 @@
       <c r="D623">
         <v>2019</v>
       </c>
-      <c r="E623">
+      <c r="E623" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F623">
         <v>54331588482.3058</v>
       </c>
     </row>
@@ -14709,7 +16587,10 @@
       <c r="D624">
         <v>2020</v>
       </c>
-      <c r="E624">
+      <c r="E624" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F624">
         <v>53706800043.6842</v>
       </c>
     </row>
@@ -14732,7 +16613,10 @@
       <c r="D625">
         <v>2021</v>
       </c>
-      <c r="E625">
+      <c r="E625" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F625">
         <v>61748586534.8672</v>
       </c>
     </row>
@@ -14755,7 +16639,10 @@
       <c r="D626">
         <v>2019</v>
       </c>
-      <c r="E626">
+      <c r="E626" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F626">
         <v>533879529188.454</v>
       </c>
     </row>
@@ -14778,7 +16665,10 @@
       <c r="D627">
         <v>2020</v>
       </c>
-      <c r="E627">
+      <c r="E627" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F627">
         <v>547054174235.876</v>
       </c>
     </row>
@@ -14801,7 +16691,10 @@
       <c r="D628">
         <v>2021</v>
       </c>
-      <c r="E628">
+      <c r="E628" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F628">
         <v>635663801201.765</v>
       </c>
     </row>
@@ -14824,7 +16717,10 @@
       <c r="D629">
         <v>2019</v>
       </c>
-      <c r="E629">
+      <c r="E629" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F629">
         <v>4495264160.86577</v>
       </c>
     </row>
@@ -14847,7 +16743,10 @@
       <c r="D630">
         <v>2020</v>
       </c>
-      <c r="E630">
+      <c r="E630" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F630">
         <v>3982226055.38454</v>
       </c>
     </row>
@@ -14870,7 +16769,10 @@
       <c r="D631">
         <v>2021</v>
       </c>
-      <c r="E631">
+      <c r="E631" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F631">
         <v>4743335152.94181</v>
       </c>
     </row>
@@ -14893,7 +16795,10 @@
       <c r="D632">
         <v>2019</v>
       </c>
-      <c r="E632">
+      <c r="E632" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F632">
         <v>1684373490.19831</v>
       </c>
     </row>
@@ -14916,7 +16821,10 @@
       <c r="D633">
         <v>2020</v>
       </c>
-      <c r="E633">
+      <c r="E633" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F633">
         <v>1261198524.11092</v>
       </c>
     </row>
@@ -14939,7 +16847,10 @@
       <c r="D634">
         <v>2021</v>
       </c>
-      <c r="E634">
+      <c r="E634" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F634">
         <v>1454458183.85981</v>
       </c>
     </row>
@@ -14962,7 +16873,10 @@
       <c r="D635">
         <v>2019</v>
       </c>
-      <c r="E635">
+      <c r="E635" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F635">
         <v>22443299775.342</v>
       </c>
     </row>
@@ -14985,7 +16899,10 @@
       <c r="D636">
         <v>2020</v>
       </c>
-      <c r="E636">
+      <c r="E636" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F636">
         <v>11079795397.2805</v>
       </c>
     </row>
@@ -15008,7 +16925,10 @@
       <c r="D637">
         <v>2019</v>
       </c>
-      <c r="E637">
+      <c r="E637" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F637">
         <v>1197415000</v>
       </c>
     </row>
@@ -15031,7 +16951,10 @@
       <c r="D638">
         <v>2020</v>
       </c>
-      <c r="E638">
+      <c r="E638" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F638">
         <v>924583000</v>
       </c>
     </row>
@@ -15054,7 +16977,10 @@
       <c r="D639">
         <v>2021</v>
       </c>
-      <c r="E639">
+      <c r="E639" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F639">
         <v>943269800</v>
       </c>
     </row>
@@ -15077,7 +17003,10 @@
       <c r="D640">
         <v>2019</v>
       </c>
-      <c r="E640">
+      <c r="E640" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F640">
         <v>11314951342.7807</v>
       </c>
     </row>
@@ -15100,7 +17029,10 @@
       <c r="D641">
         <v>2020</v>
       </c>
-      <c r="E641">
+      <c r="E641" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F641">
         <v>10715396135.4168</v>
       </c>
     </row>
@@ -15123,7 +17055,10 @@
       <c r="D642">
         <v>2021</v>
       </c>
-      <c r="E642">
+      <c r="E642" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F642">
         <v>11779980801.7843</v>
       </c>
     </row>
@@ -15146,7 +17081,10 @@
       <c r="D643">
         <v>2019</v>
       </c>
-      <c r="E643">
+      <c r="E643" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F643">
         <v>17185732294158.7</v>
       </c>
     </row>
@@ -15169,7 +17107,10 @@
       <c r="D644">
         <v>2020</v>
       </c>
-      <c r="E644">
+      <c r="E644" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F644">
         <v>17464369876211.7</v>
       </c>
     </row>
@@ -15192,7 +17133,10 @@
       <c r="D645">
         <v>2021</v>
       </c>
-      <c r="E645">
+      <c r="E645" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F645">
         <v>20725171469830.4</v>
       </c>
     </row>
@@ -15215,7 +17159,10 @@
       <c r="D646">
         <v>2019</v>
       </c>
-      <c r="E646">
+      <c r="E646" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F646">
         <v>4158041868619.31</v>
       </c>
     </row>
@@ -15238,7 +17185,10 @@
       <c r="D647">
         <v>2020</v>
       </c>
-      <c r="E647">
+      <c r="E647" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F647">
         <v>3891716780502.41</v>
       </c>
     </row>
@@ -15261,7 +17211,10 @@
       <c r="D648">
         <v>2021</v>
       </c>
-      <c r="E648">
+      <c r="E648" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F648">
         <v>4550386471314.9</v>
       </c>
     </row>
@@ -15284,7 +17237,10 @@
       <c r="D649">
         <v>2019</v>
       </c>
-      <c r="E649">
+      <c r="E649" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F649">
         <v>7220395247.7424</v>
       </c>
     </row>
@@ -15307,7 +17263,10 @@
       <c r="D650">
         <v>2020</v>
       </c>
-      <c r="E650">
+      <c r="E650" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F650">
         <v>7574636978.66175</v>
       </c>
     </row>
@@ -15330,7 +17289,10 @@
       <c r="D651">
         <v>2021</v>
       </c>
-      <c r="E651">
+      <c r="E651" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F651">
         <v>8413200567.6151</v>
       </c>
     </row>
@@ -15353,7 +17315,10 @@
       <c r="D652">
         <v>2019</v>
       </c>
-      <c r="E652">
+      <c r="E652" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F652">
         <v>544081056184.697</v>
       </c>
     </row>
@@ -15376,7 +17341,10 @@
       <c r="D653">
         <v>2020</v>
       </c>
-      <c r="E653">
+      <c r="E653" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F653">
         <v>499681757030.968</v>
       </c>
     </row>
@@ -15399,7 +17367,10 @@
       <c r="D654">
         <v>2021</v>
       </c>
-      <c r="E654">
+      <c r="E654" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F654">
         <v>505947037098.424</v>
       </c>
     </row>
@@ -15422,7 +17393,10 @@
       <c r="D655">
         <v>2019</v>
       </c>
-      <c r="E655">
+      <c r="E655" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F655">
         <v>8300784856.87904</v>
       </c>
     </row>
@@ -15445,7 +17419,10 @@
       <c r="D656">
         <v>2020</v>
       </c>
-      <c r="E656">
+      <c r="E656" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F656">
         <v>8133996647.90397</v>
       </c>
     </row>
@@ -15468,7 +17445,10 @@
       <c r="D657">
         <v>2021</v>
       </c>
-      <c r="E657">
+      <c r="E657" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F657">
         <v>8746270636.401421</v>
       </c>
     </row>
@@ -15491,7 +17471,10 @@
       <c r="D658">
         <v>2019</v>
       </c>
-      <c r="E658">
+      <c r="E658" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F658">
         <v>45231428571.4286</v>
       </c>
     </row>
@@ -15514,7 +17497,10 @@
       <c r="D659">
         <v>2019</v>
       </c>
-      <c r="E659">
+      <c r="E659" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F659">
         <v>5367417073061.3</v>
       </c>
     </row>
@@ -15537,7 +17523,10 @@
       <c r="D660">
         <v>2020</v>
       </c>
-      <c r="E660">
+      <c r="E660" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F660">
         <v>4494455537224.68</v>
       </c>
     </row>
@@ -15560,7 +17549,10 @@
       <c r="D661">
         <v>2021</v>
       </c>
-      <c r="E661">
+      <c r="E661" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F661">
         <v>5183127352776.93</v>
       </c>
     </row>
@@ -15583,7 +17575,10 @@
       <c r="D662">
         <v>2019</v>
       </c>
-      <c r="E662">
+      <c r="E662" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F662">
         <v>2028551627.60532</v>
       </c>
     </row>
@@ -15606,7 +17601,10 @@
       <c r="D663">
         <v>2020</v>
       </c>
-      <c r="E663">
+      <c r="E663" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F663">
         <v>2158392539.93697</v>
       </c>
     </row>
@@ -15629,7 +17627,10 @@
       <c r="D664">
         <v>2021</v>
       </c>
-      <c r="E664">
+      <c r="E664" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F664">
         <v>3621222382.15929</v>
       </c>
     </row>
@@ -15652,7 +17653,10 @@
       <c r="D665">
         <v>2019</v>
       </c>
-      <c r="E665">
+      <c r="E665" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F665">
         <v>1376425284814.72</v>
       </c>
     </row>
@@ -15675,7 +17679,10 @@
       <c r="D666">
         <v>2020</v>
       </c>
-      <c r="E666">
+      <c r="E666" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F666">
         <v>1258548859986.87</v>
       </c>
     </row>
@@ -15698,7 +17705,10 @@
       <c r="D667">
         <v>2021</v>
       </c>
-      <c r="E667">
+      <c r="E667" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F667">
         <v>1475707612624.83</v>
       </c>
     </row>
@@ -15721,7 +17731,10 @@
       <c r="D668">
         <v>2019</v>
       </c>
-      <c r="E668">
+      <c r="E668" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F668">
         <v>512057749.020644</v>
       </c>
     </row>
@@ -15744,7 +17757,10 @@
       <c r="D669">
         <v>2020</v>
       </c>
-      <c r="E669">
+      <c r="E669" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F669">
         <v>484806718.323882</v>
       </c>
     </row>
@@ -15767,7 +17783,10 @@
       <c r="D670">
         <v>2021</v>
       </c>
-      <c r="E670">
+      <c r="E670" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F670">
         <v>469231309.539488</v>
       </c>
     </row>
@@ -15790,7 +17809,10 @@
       <c r="D671">
         <v>2019</v>
       </c>
-      <c r="E671">
+      <c r="E671" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F671">
         <v>3653950915835.84</v>
       </c>
     </row>
@@ -15813,7 +17835,10 @@
       <c r="D672">
         <v>2020</v>
       </c>
-      <c r="E672">
+      <c r="E672" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F672">
         <v>3487013484521.62</v>
       </c>
     </row>
@@ -15836,7 +17861,10 @@
       <c r="D673">
         <v>2021</v>
       </c>
-      <c r="E673">
+      <c r="E673" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F673">
         <v>4088770638066.94</v>
       </c>
     </row>
@@ -15859,7 +17887,10 @@
       <c r="D674">
         <v>2019</v>
       </c>
-      <c r="E674">
+      <c r="E674" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F674">
         <v>1803362506027.61</v>
       </c>
     </row>
@@ -15882,7 +17913,10 @@
       <c r="D675">
         <v>2020</v>
       </c>
-      <c r="E675">
+      <c r="E675" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F675">
         <v>1719009523108.91</v>
       </c>
     </row>
@@ -15905,7 +17939,10 @@
       <c r="D676">
         <v>2021</v>
       </c>
-      <c r="E676">
+      <c r="E676" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F676">
         <v>1929052252557.38</v>
       </c>
     </row>
@@ -15928,7 +17965,10 @@
       <c r="D677">
         <v>2019</v>
       </c>
-      <c r="E677">
+      <c r="E677" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F677">
         <v>23849557811.8957</v>
       </c>
     </row>
@@ -15951,7 +17991,10 @@
       <c r="D678">
         <v>2020</v>
       </c>
-      <c r="E678">
+      <c r="E678" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F678">
         <v>21059428851.4883</v>
       </c>
     </row>
@@ -15974,7 +18017,10 @@
       <c r="D679">
         <v>2021</v>
       </c>
-      <c r="E679">
+      <c r="E679" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F679">
         <v>24460196270.6866</v>
       </c>
     </row>
@@ -15997,7 +18043,10 @@
       <c r="D680">
         <v>2019</v>
       </c>
-      <c r="E680">
+      <c r="E680" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F680">
         <v>41906113685.9324</v>
       </c>
     </row>
@@ -16020,7 +18069,10 @@
       <c r="D681">
         <v>2020</v>
       </c>
-      <c r="E681">
+      <c r="E681" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F681">
         <v>42537832456.2651</v>
       </c>
     </row>
@@ -16043,7 +18095,10 @@
       <c r="D682">
         <v>2021</v>
       </c>
-      <c r="E682">
+      <c r="E682" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F682">
         <v>46686741814.278</v>
       </c>
     </row>
@@ -16066,7 +18121,10 @@
       <c r="D683">
         <v>2019</v>
       </c>
-      <c r="E683">
+      <c r="E683" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F683">
         <v>759937390496.6689</v>
       </c>
     </row>
@@ -16089,7 +18147,10 @@
       <c r="D684">
         <v>2020</v>
       </c>
-      <c r="E684">
+      <c r="E684" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F684">
         <v>720289368333.191</v>
       </c>
     </row>
@@ -16112,7 +18173,10 @@
       <c r="D685">
         <v>2021</v>
       </c>
-      <c r="E685">
+      <c r="E685" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F685">
         <v>819035182929.585</v>
       </c>
     </row>
@@ -16135,7 +18199,10 @@
       <c r="D686">
         <v>2019</v>
       </c>
-      <c r="E686">
+      <c r="E686" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F686">
         <v>54223149.1136601</v>
       </c>
     </row>
@@ -16158,7 +18225,10 @@
       <c r="D687">
         <v>2020</v>
       </c>
-      <c r="E687">
+      <c r="E687" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F687">
         <v>55054710.6186773</v>
       </c>
     </row>
@@ -16181,7 +18251,10 @@
       <c r="D688">
         <v>2021</v>
       </c>
-      <c r="E688">
+      <c r="E688" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F688">
         <v>63100961.5384615</v>
       </c>
     </row>
@@ -16204,7 +18277,10 @@
       <c r="D689">
         <v>2019</v>
       </c>
-      <c r="E689">
+      <c r="E689" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F689">
         <v>61136873692.3985</v>
       </c>
     </row>
@@ -16227,7 +18303,10 @@
       <c r="D690">
         <v>2020</v>
       </c>
-      <c r="E690">
+      <c r="E690" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F690">
         <v>62409709110.9538</v>
       </c>
     </row>
@@ -16250,7 +18329,10 @@
       <c r="D691">
         <v>2021</v>
       </c>
-      <c r="E691">
+      <c r="E691" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F691">
         <v>67841049193.3855</v>
       </c>
     </row>
@@ -16273,7 +18355,10 @@
       <c r="D692">
         <v>2019</v>
       </c>
-      <c r="E692">
+      <c r="E692" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F692">
         <v>35353060634.2022</v>
       </c>
     </row>
@@ -16296,7 +18381,10 @@
       <c r="D693">
         <v>2020</v>
       </c>
-      <c r="E693">
+      <c r="E693" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F693">
         <v>37600368180.9399</v>
       </c>
     </row>
@@ -16319,7 +18407,10 @@
       <c r="D694">
         <v>2021</v>
       </c>
-      <c r="E694">
+      <c r="E694" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F694">
         <v>40529789025.5702</v>
       </c>
     </row>
@@ -16342,7 +18433,10 @@
       <c r="D695">
         <v>2019</v>
       </c>
-      <c r="E695">
+      <c r="E695" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F695">
         <v>153882982016.281</v>
       </c>
     </row>
@@ -16365,7 +18459,10 @@
       <c r="D696">
         <v>2020</v>
       </c>
-      <c r="E696">
+      <c r="E696" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F696">
         <v>156617861448.576</v>
       </c>
     </row>
@@ -16388,7 +18485,10 @@
       <c r="D697">
         <v>2021</v>
       </c>
-      <c r="E697">
+      <c r="E697" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F697">
         <v>200085537744.354</v>
       </c>
     </row>
@@ -16411,7 +18511,10 @@
       <c r="D698">
         <v>2019</v>
       </c>
-      <c r="E698">
+      <c r="E698" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F698">
         <v>61231149880.5857</v>
       </c>
     </row>
@@ -16434,7 +18537,10 @@
       <c r="D699">
         <v>2020</v>
       </c>
-      <c r="E699">
+      <c r="E699" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F699">
         <v>53560755046.6162</v>
       </c>
     </row>
@@ -16457,7 +18563,10 @@
       <c r="D700">
         <v>2021</v>
       </c>
-      <c r="E700">
+      <c r="E700" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F700">
         <v>59319484710.6527</v>
       </c>
     </row>
@@ -16480,7 +18589,10 @@
       <c r="D701">
         <v>2019</v>
       </c>
-      <c r="E701">
+      <c r="E701" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F701">
         <v>21380976119000</v>
       </c>
     </row>
@@ -16503,7 +18615,10 @@
       <c r="D702">
         <v>2020</v>
       </c>
-      <c r="E702">
+      <c r="E702" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F702">
         <v>21060473613000</v>
       </c>
     </row>
@@ -16526,7 +18641,10 @@
       <c r="D703">
         <v>2021</v>
       </c>
-      <c r="E703">
+      <c r="E703" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F703">
         <v>23315080560000</v>
       </c>
     </row>
@@ -16549,7 +18667,10 @@
       <c r="D704">
         <v>2019</v>
       </c>
-      <c r="E704">
+      <c r="E704" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F704">
         <v>59907674027.4676</v>
       </c>
     </row>
@@ -16572,7 +18693,10 @@
       <c r="D705">
         <v>2020</v>
       </c>
-      <c r="E705">
+      <c r="E705" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F705">
         <v>59894305352.8955</v>
       </c>
     </row>
@@ -16595,7 +18719,10 @@
       <c r="D706">
         <v>2021</v>
       </c>
-      <c r="E706">
+      <c r="E706" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F706">
         <v>69238903106.1738</v>
       </c>
     </row>
@@ -16618,7 +18745,10 @@
       <c r="D707">
         <v>2019</v>
       </c>
-      <c r="E707">
+      <c r="E707" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F707">
         <v>910149703.703704</v>
       </c>
     </row>
@@ -16641,7 +18771,10 @@
       <c r="D708">
         <v>2020</v>
       </c>
-      <c r="E708">
+      <c r="E708" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F708">
         <v>872134555.555555</v>
       </c>
     </row>
@@ -16664,7 +18797,10 @@
       <c r="D709">
         <v>2021</v>
       </c>
-      <c r="E709">
+      <c r="E709" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F709">
         <v>904181492.766708</v>
       </c>
     </row>
@@ -16687,7 +18823,10 @@
       <c r="D710">
         <v>2019</v>
       </c>
-      <c r="E710">
+      <c r="E710" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F710">
         <v>4117000000</v>
       </c>
     </row>
@@ -16710,7 +18849,10 @@
       <c r="D711">
         <v>2020</v>
       </c>
-      <c r="E711">
+      <c r="E711" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F711">
         <v>4204000000</v>
       </c>
     </row>
@@ -16733,7 +18875,10 @@
       <c r="D712">
         <v>2019</v>
       </c>
-      <c r="E712">
+      <c r="E712" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F712">
         <v>334365257436.758</v>
       </c>
     </row>
@@ -16756,7 +18901,10 @@
       <c r="D713">
         <v>2020</v>
       </c>
-      <c r="E713">
+      <c r="E713" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F713">
         <v>346615750664.384</v>
       </c>
     </row>
@@ -16779,7 +18927,10 @@
       <c r="D714">
         <v>2021</v>
       </c>
-      <c r="E714">
+      <c r="E714" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F714">
         <v>366137590600.699</v>
       </c>
     </row>
@@ -16802,7 +18953,10 @@
       <c r="D715">
         <v>2019</v>
       </c>
-      <c r="E715">
+      <c r="E715" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F715">
         <v>936526267.6225131</v>
       </c>
     </row>
@@ -16825,7 +18979,10 @@
       <c r="D716">
         <v>2020</v>
       </c>
-      <c r="E716">
+      <c r="E716" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F716">
         <v>896879875.195008</v>
       </c>
     </row>
@@ -16848,7 +19005,10 @@
       <c r="D717">
         <v>2021</v>
       </c>
-      <c r="E717">
+      <c r="E717" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F717">
         <v>956332655.7182339</v>
       </c>
     </row>
@@ -16871,7 +19031,10 @@
       <c r="D718">
         <v>2019</v>
       </c>
-      <c r="E718">
+      <c r="E718" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F718">
         <v>87654250895445.7</v>
       </c>
     </row>
@@ -16894,7 +19057,10 @@
       <c r="D719">
         <v>2020</v>
       </c>
-      <c r="E719">
+      <c r="E719" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F719">
         <v>85116336691718.7</v>
       </c>
     </row>
@@ -16917,7 +19083,10 @@
       <c r="D720">
         <v>2021</v>
       </c>
-      <c r="E720">
+      <c r="E720" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F720">
         <v>96527425918257.8</v>
       </c>
     </row>
@@ -16940,7 +19109,10 @@
       <c r="D721">
         <v>2019</v>
       </c>
-      <c r="E721">
+      <c r="E721" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F721">
         <v>912944537.8151259</v>
       </c>
     </row>
@@ -16963,7 +19135,10 @@
       <c r="D722">
         <v>2020</v>
       </c>
-      <c r="E722">
+      <c r="E722" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F722">
         <v>868904477.722589</v>
       </c>
     </row>
@@ -16986,7 +19161,10 @@
       <c r="D723">
         <v>2021</v>
       </c>
-      <c r="E723">
+      <c r="E723" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F723">
         <v>843842416.462442</v>
       </c>
     </row>
@@ -17009,7 +19187,10 @@
       <c r="D724">
         <v>2019</v>
       </c>
-      <c r="E724">
+      <c r="E724" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F724">
         <v>7899879086.43081</v>
       </c>
     </row>
@@ -17032,7 +19213,10 @@
       <c r="D725">
         <v>2020</v>
       </c>
-      <c r="E725">
+      <c r="E725" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F725">
         <v>7716925356.12536</v>
       </c>
     </row>
@@ -17055,7 +19239,10 @@
       <c r="D726">
         <v>2021</v>
       </c>
-      <c r="E726">
+      <c r="E726" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F726">
         <v>9412034299.23122</v>
       </c>
     </row>
@@ -17078,7 +19265,10 @@
       <c r="D727">
         <v>2019</v>
       </c>
-      <c r="E727">
+      <c r="E727" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F727">
         <v>388531954110.604</v>
       </c>
     </row>
@@ -17101,7 +19291,10 @@
       <c r="D728">
         <v>2020</v>
       </c>
-      <c r="E728">
+      <c r="E728" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F728">
         <v>337619680138.494</v>
       </c>
     </row>
@@ -17124,7 +19317,10 @@
       <c r="D729">
         <v>2021</v>
       </c>
-      <c r="E729">
+      <c r="E729" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F729">
         <v>419015018371.887</v>
       </c>
     </row>
@@ -17147,7 +19343,10 @@
       <c r="D730">
         <v>2019</v>
       </c>
-      <c r="E730">
+      <c r="E730" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F730">
         <v>23308667781.2258</v>
       </c>
     </row>
@@ -17170,7 +19369,10 @@
       <c r="D731">
         <v>2020</v>
       </c>
-      <c r="E731">
+      <c r="E731" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F731">
         <v>18110631358.3114</v>
       </c>
     </row>
@@ -17193,7 +19395,10 @@
       <c r="D732">
         <v>2021</v>
       </c>
-      <c r="E732">
+      <c r="E732" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F732">
         <v>22147634727.3584</v>
       </c>
     </row>
@@ -17216,7 +19421,10 @@
       <c r="D733">
         <v>2019</v>
       </c>
-      <c r="E733">
+      <c r="E733" s="2">
+        <v>43466</v>
+      </c>
+      <c r="F733">
         <v>21832234925.5021</v>
       </c>
     </row>
@@ -17239,7 +19447,10 @@
       <c r="D734">
         <v>2020</v>
       </c>
-      <c r="E734">
+      <c r="E734" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F734">
         <v>21509698406.1116</v>
       </c>
     </row>
@@ -17262,7 +19473,10 @@
       <c r="D735">
         <v>2021</v>
       </c>
-      <c r="E735">
+      <c r="E735" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F735">
         <v>28371238665.5116</v>
       </c>
     </row>

--- a/data/wb_gdp3.xlsx
+++ b/data/wb_gdp3.xlsx
@@ -372,7 +372,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>gdp</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
